--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -22458,10 +22458,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111617437</v>
+        <v>111617935</v>
       </c>
       <c r="B182" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22474,39 +22474,30 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
@@ -22514,13 +22505,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>511099.8728860362</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R182" t="n">
-        <v>6729070.288796146</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S182" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -22549,7 +22540,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -22559,7 +22550,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -22568,6 +22559,7 @@
       <c r="AE182" t="b">
         <v>0</v>
       </c>
+      <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="b">
         <v>0</v>
       </c>
@@ -22578,7 +22570,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
+          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22596,10 +22588,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111617935</v>
+        <v>111617437</v>
       </c>
       <c r="B183" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22612,30 +22604,39 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22643,13 +22644,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>511154.783672709</v>
+        <v>511099.8728860362</v>
       </c>
       <c r="R183" t="n">
-        <v>6729077.804506998</v>
+        <v>6729070.288796146</v>
       </c>
       <c r="S183" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -22678,7 +22679,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -22688,7 +22689,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22697,7 +22698,6 @@
       <c r="AE183" t="b">
         <v>0</v>
       </c>
-      <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="b">
         <v>0</v>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -22458,10 +22458,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111617935</v>
+        <v>111617437</v>
       </c>
       <c r="B182" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22474,30 +22474,39 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
@@ -22505,13 +22514,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>511154.783672709</v>
+        <v>511099.8728860362</v>
       </c>
       <c r="R182" t="n">
-        <v>6729077.804506998</v>
+        <v>6729070.288796146</v>
       </c>
       <c r="S182" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -22540,7 +22549,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -22550,7 +22559,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -22559,7 +22568,6 @@
       <c r="AE182" t="b">
         <v>0</v>
       </c>
-      <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="b">
         <v>0</v>
       </c>
@@ -22570,7 +22578,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22588,10 +22596,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111617437</v>
+        <v>111617935</v>
       </c>
       <c r="B183" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22604,39 +22612,30 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22644,13 +22643,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>511099.8728860362</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R183" t="n">
-        <v>6729070.288796146</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S183" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -22679,7 +22678,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -22689,7 +22688,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22698,6 +22697,7 @@
       <c r="AE183" t="b">
         <v>0</v>
       </c>
+      <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="b">
         <v>0</v>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
+          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -22458,10 +22458,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111617437</v>
+        <v>111617935</v>
       </c>
       <c r="B182" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22474,39 +22474,30 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
@@ -22514,13 +22505,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>511099.8728860362</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R182" t="n">
-        <v>6729070.288796146</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S182" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -22549,7 +22540,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -22559,7 +22550,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -22568,6 +22559,7 @@
       <c r="AE182" t="b">
         <v>0</v>
       </c>
+      <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="b">
         <v>0</v>
       </c>
@@ -22578,7 +22570,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
+          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22596,10 +22588,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111617935</v>
+        <v>111617437</v>
       </c>
       <c r="B183" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22612,30 +22604,39 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22643,13 +22644,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>511154.783672709</v>
+        <v>511099.8728860362</v>
       </c>
       <c r="R183" t="n">
-        <v>6729077.804506998</v>
+        <v>6729070.288796146</v>
       </c>
       <c r="S183" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -22678,7 +22679,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -22688,7 +22689,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22697,7 +22698,6 @@
       <c r="AE183" t="b">
         <v>0</v>
       </c>
-      <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="b">
         <v>0</v>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111771752</v>
+        <v>111772348</v>
       </c>
       <c r="B184" t="n">
         <v>89845</v>
@@ -22769,10 +22769,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>511047.2121991166</v>
+        <v>511052.1440637764</v>
       </c>
       <c r="R184" t="n">
-        <v>6729128.399230056</v>
+        <v>6729119.600080306</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22817,11 +22817,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC184" t="inlineStr">
-        <is>
-          <t>Färsk och rikligt på låga av gran.</t>
-        </is>
-      </c>
       <c r="AD184" t="b">
         <v>0</v>
       </c>
@@ -22839,7 +22834,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del liggande och stående död ved,</t>
+          <t>Naturskog med en hel del liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22857,7 +22852,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111772348</v>
+        <v>111771752</v>
       </c>
       <c r="B185" t="n">
         <v>89845</v>
@@ -22900,10 +22895,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>511052.1440637764</v>
+        <v>511047.2121991166</v>
       </c>
       <c r="R185" t="n">
-        <v>6729119.600080306</v>
+        <v>6729128.399230056</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22948,6 +22943,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC185" t="inlineStr">
+        <is>
+          <t>Färsk och rikligt på låga av gran.</t>
+        </is>
+      </c>
       <c r="AD185" t="b">
         <v>0</v>
       </c>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del liggande och stående död ved.</t>
+          <t>Naturskog med en hel del liggande och stående död ved,</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -22458,10 +22458,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111617437</v>
+        <v>111617935</v>
       </c>
       <c r="B182" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22474,39 +22474,30 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
@@ -22514,13 +22505,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>511099.8728860362</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R182" t="n">
-        <v>6729070.288796146</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S182" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -22549,7 +22540,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -22559,7 +22550,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -22568,6 +22559,7 @@
       <c r="AE182" t="b">
         <v>0</v>
       </c>
+      <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="b">
         <v>0</v>
       </c>
@@ -22578,7 +22570,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
+          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22596,10 +22588,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111617935</v>
+        <v>111617437</v>
       </c>
       <c r="B183" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22612,30 +22604,39 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22643,13 +22644,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>511154.783672709</v>
+        <v>511099.8728860362</v>
       </c>
       <c r="R183" t="n">
-        <v>6729077.804506998</v>
+        <v>6729070.288796146</v>
       </c>
       <c r="S183" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -22678,7 +22679,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -22688,7 +22689,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22697,7 +22698,6 @@
       <c r="AE183" t="b">
         <v>0</v>
       </c>
-      <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="b">
         <v>0</v>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111772348</v>
+        <v>111771752</v>
       </c>
       <c r="B184" t="n">
         <v>89845</v>
@@ -22769,10 +22769,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>511052.1440637764</v>
+        <v>511047.2121991166</v>
       </c>
       <c r="R184" t="n">
-        <v>6729119.600080306</v>
+        <v>6729128.399230056</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22817,6 +22817,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC184" t="inlineStr">
+        <is>
+          <t>Färsk och rikligt på låga av gran.</t>
+        </is>
+      </c>
       <c r="AD184" t="b">
         <v>0</v>
       </c>
@@ -22834,7 +22839,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del liggande och stående död ved.</t>
+          <t>Naturskog med en hel del liggande och stående död ved,</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22852,7 +22857,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111771752</v>
+        <v>111772348</v>
       </c>
       <c r="B185" t="n">
         <v>89845</v>
@@ -22895,10 +22900,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>511047.2121991166</v>
+        <v>511052.1440637764</v>
       </c>
       <c r="R185" t="n">
-        <v>6729128.399230056</v>
+        <v>6729119.600080306</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22943,11 +22948,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC185" t="inlineStr">
-        <is>
-          <t>Färsk och rikligt på låga av gran.</t>
-        </is>
-      </c>
       <c r="AD185" t="b">
         <v>0</v>
       </c>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del liggande och stående död ved,</t>
+          <t>Naturskog med en hel del liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -22769,10 +22769,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>511047.2121991166</v>
+        <v>511047</v>
       </c>
       <c r="R184" t="n">
-        <v>6729128.399230056</v>
+        <v>6729128</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22802,19 +22802,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA184" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB184" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr">
@@ -22900,10 +22890,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>511052.1440637764</v>
+        <v>511052</v>
       </c>
       <c r="R185" t="n">
-        <v>6729119.600080306</v>
+        <v>6729120</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22933,19 +22923,9 @@
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA185" t="inlineStr">
         <is>
           <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AB185" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD185" t="b">

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97630732</v>
+        <v>100391156</v>
       </c>
       <c r="B4" t="n">
         <v>89392</v>
@@ -946,9 +946,7 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Solberga, Dlr</t>
@@ -961,7 +959,7 @@
         <v>6729167.197241327</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,22 +983,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1009,19 +1007,18 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mattias Ahlstedt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mattias Ahlstedt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -11580,10 +11577,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>102062640</v>
+        <v>102062243</v>
       </c>
       <c r="B94" t="n">
-        <v>103250</v>
+        <v>96254</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11596,30 +11593,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221725</v>
+        <v>223597</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
@@ -11628,10 +11617,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>510852.8743588758</v>
+        <v>510748.8220679502</v>
       </c>
       <c r="R94" t="n">
-        <v>6728840.349501666</v>
+        <v>6729025.147143554</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11701,10 +11690,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102062243</v>
+        <v>102061838</v>
       </c>
       <c r="B95" t="n">
-        <v>96254</v>
+        <v>96354</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11717,22 +11706,30 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>223597</v>
+        <v>221952</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
@@ -11741,10 +11738,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>510748.8220679502</v>
+        <v>511103.7012269867</v>
       </c>
       <c r="R95" t="n">
-        <v>6729025.147143554</v>
+        <v>6729101.15116877</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11814,10 +11811,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>102061838</v>
+        <v>102062185</v>
       </c>
       <c r="B96" t="n">
-        <v>96354</v>
+        <v>89794</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11830,31 +11827,26 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>221952</v>
+        <v>5321</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -11862,10 +11854,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>511103.7012269867</v>
+        <v>510792.723962459</v>
       </c>
       <c r="R96" t="n">
-        <v>6729101.15116877</v>
+        <v>6729268.651027842</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11887,7 +11879,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11935,10 +11927,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>102062185</v>
+        <v>102062125</v>
       </c>
       <c r="B97" t="n">
-        <v>89794</v>
+        <v>78503</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11951,21 +11943,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5321</v>
+        <v>6456</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -12051,10 +12043,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102062125</v>
+        <v>102062179</v>
       </c>
       <c r="B98" t="n">
-        <v>78503</v>
+        <v>96367</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12067,26 +12059,35 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6456</v>
+        <v>219874</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
@@ -12167,7 +12168,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102062179</v>
+        <v>102254812</v>
       </c>
       <c r="B99" t="n">
         <v>96367</v>
@@ -12202,27 +12203,27 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga fuktig skog, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>510792.723962459</v>
+        <v>511050.8267200021</v>
       </c>
       <c r="R99" t="n">
-        <v>6729268.651027842</v>
+        <v>6729228.794391003</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12249,7 +12250,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
@@ -12259,7 +12260,7 @@
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
@@ -12280,22 +12281,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Johanne Maad</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
+          <t>Johanne Maad, Cecilia Rastad</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>102254812</v>
+        <v>102255723</v>
       </c>
       <c r="B100" t="n">
-        <v>96367</v>
+        <v>96356</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12308,49 +12309,49 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>219874</v>
+        <v>219847</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Solberga fuktig skog, Dlr</t>
+          <t>Solberga sumpskog, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>511050.8267200021</v>
+        <v>510848.334236911</v>
       </c>
       <c r="R100" t="n">
-        <v>6729228.794391003</v>
+        <v>6729044.055195334</v>
       </c>
       <c r="S100" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12369,12 +12370,12 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -12384,12 +12385,17 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>5 vegetativa, 3 i blom</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12417,10 +12423,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>102255723</v>
+        <v>102254606</v>
       </c>
       <c r="B101" t="n">
-        <v>96356</v>
+        <v>96251</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12433,49 +12439,41 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>219847</v>
+        <v>219790</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Solberga sumpskog, Dlr</t>
+          <t>Solberga skogskärr (mitten), Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>510848.334236911</v>
+        <v>511086.8767753525</v>
       </c>
       <c r="R101" t="n">
-        <v>6729044.055195334</v>
+        <v>6729149.088311152</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12499,7 +12497,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -12509,17 +12507,12 @@
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>5 vegetativa, 3 i blom</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12547,10 +12540,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>102254606</v>
+        <v>102254478</v>
       </c>
       <c r="B102" t="n">
-        <v>96251</v>
+        <v>95519</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12563,21 +12556,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12664,10 +12657,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102254478</v>
+        <v>102254655</v>
       </c>
       <c r="B103" t="n">
-        <v>95519</v>
+        <v>95511</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12680,21 +12673,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>221945</v>
+        <v>221944</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12781,10 +12774,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>102254655</v>
+        <v>102254663</v>
       </c>
       <c r="B104" t="n">
-        <v>95511</v>
+        <v>96354</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12797,21 +12790,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>221944</v>
+        <v>221952</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12898,10 +12891,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>102254663</v>
+        <v>102255512</v>
       </c>
       <c r="B105" t="n">
-        <v>96354</v>
+        <v>96367</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12914,16 +12907,16 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>221952</v>
+        <v>219874</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -12938,17 +12931,17 @@
       <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Solberga skogskärr (mitten), Dlr</t>
+          <t>Solberga fuktig skog, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>511086.8767753525</v>
+        <v>510727.8160558232</v>
       </c>
       <c r="R105" t="n">
-        <v>6729149.088311152</v>
+        <v>6729160.728267071</v>
       </c>
       <c r="S105" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -12967,7 +12960,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -13015,7 +13008,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>102255512</v>
+        <v>102255734</v>
       </c>
       <c r="B106" t="n">
         <v>96367</v>
@@ -13048,21 +13041,29 @@
           <t>(L.) Rich.</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Solberga fuktig skog, Dlr</t>
+          <t>Solberga sumpskog, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>510727.8160558232</v>
+        <v>510848.334236911</v>
       </c>
       <c r="R106" t="n">
-        <v>6729160.728267071</v>
+        <v>6729044.055195334</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -13084,12 +13085,12 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
@@ -13099,7 +13100,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
@@ -13132,10 +13133,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>102255734</v>
+        <v>102362506</v>
       </c>
       <c r="B107" t="n">
-        <v>96367</v>
+        <v>57484</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -13144,25 +13145,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>219874</v>
+        <v>205998</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -13171,23 +13172,20 @@
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Solberga sumpskog, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>510848.334236911</v>
+        <v>511023.8637154541</v>
       </c>
       <c r="R107" t="n">
-        <v>6729044.055195334</v>
+        <v>6729065.157483819</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -13214,22 +13212,27 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>Förbiflygande fladdermus, vet ej art.</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -13238,29 +13241,38 @@
       <c r="AE107" t="b">
         <v>0</v>
       </c>
-      <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="b">
         <v>0</v>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>Barrträd</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog nära damm, fladdermusen flög längs en stig där det var mera öppet.</t>
+        </is>
       </c>
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Johanne Maad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Johanne Maad, Cecilia Rastad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>102362506</v>
+        <v>102362604</v>
       </c>
       <c r="B108" t="n">
-        <v>57484</v>
+        <v>96254</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13269,36 +13281,31 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>205998</v>
+        <v>223597</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
@@ -13306,13 +13313,13 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>511023.8637154541</v>
+        <v>511012.134721266</v>
       </c>
       <c r="R108" t="n">
-        <v>6729065.157483819</v>
+        <v>6729211.047191062</v>
       </c>
       <c r="S108" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -13331,32 +13338,27 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Förbiflygande fladdermus, vet ej art.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13365,17 +13367,18 @@
       <c r="AE108" t="b">
         <v>0</v>
       </c>
+      <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="b">
         <v>0</v>
       </c>
       <c r="AH108" t="inlineStr">
         <is>
-          <t>Barrträd</t>
+          <t>Skogsmark</t>
         </is>
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>Kalkbarrskog nära damm, fladdermusen flög längs en stig där det var mera öppet.</t>
+          <t>Örtrikt, lite ljusare område i kalkbarrskog</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -13393,10 +13396,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>102362604</v>
+        <v>102408406</v>
       </c>
       <c r="B109" t="n">
-        <v>96254</v>
+        <v>96252</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13409,22 +13412,26 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>223597</v>
+        <v>223591</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(Druce) Hyl.</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -13437,13 +13444,13 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>511012.134721266</v>
+        <v>511149.5253917985</v>
       </c>
       <c r="R109" t="n">
-        <v>6729211.047191062</v>
+        <v>6729033.715610581</v>
       </c>
       <c r="S109" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -13462,7 +13469,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -13502,7 +13509,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>Örtrikt, lite ljusare område i kalkbarrskog</t>
+          <t>Sumpigt område.</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -13520,10 +13527,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>102408406</v>
+        <v>102526487</v>
       </c>
       <c r="B110" t="n">
-        <v>96252</v>
+        <v>56806</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13532,46 +13539,50 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>223591</v>
+        <v>103001</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>511149.5253917985</v>
+        <v>510771.2520460345</v>
       </c>
       <c r="R110" t="n">
-        <v>6729033.715610581</v>
+        <v>6729069.287040698</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13598,7 +13609,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
@@ -13608,7 +13619,7 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
@@ -13616,24 +13627,23 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>Även observerad.</t>
+        </is>
+      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
       <c r="AH110" t="inlineStr">
         <is>
           <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI110" t="inlineStr">
-        <is>
-          <t>Sumpigt område.</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13644,17 +13654,17 @@
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>102526487</v>
+        <v>102607789</v>
       </c>
       <c r="B111" t="n">
-        <v>56806</v>
+        <v>56395</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13667,46 +13677,42 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>103001</v>
+        <v>100109</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Solberga, Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>510771.2520460345</v>
+        <v>511023.8184710531</v>
       </c>
       <c r="R111" t="n">
-        <v>6729069.287040698</v>
+        <v>6729239.484042487</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13728,12 +13734,12 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
@@ -13743,7 +13749,7 @@
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
@@ -13753,7 +13759,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Även observerad.</t>
+          <t>Ringhack på tall en bra bit upp på stammen. Samt inom samma område flera träd med hack och sav som runnit. Se bilder.</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13764,11 +13770,6 @@
       </c>
       <c r="AG111" t="b">
         <v>0</v>
-      </c>
-      <c r="AH111" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
@@ -13778,14 +13779,14 @@
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>102607789</v>
+        <v>102607770</v>
       </c>
       <c r="B112" t="n">
         <v>56395</v>
@@ -13826,17 +13827,16 @@
           <t>färska spår</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>511023.8184710531</v>
+        <v>511023.8380336929</v>
       </c>
       <c r="R112" t="n">
-        <v>6729239.484042487</v>
+        <v>6729233.118388594</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13881,11 +13881,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>Ringhack på tall en bra bit upp på stammen. Samt inom samma område flera träd med hack och sav som runnit. Se bilder.</t>
-        </is>
-      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
@@ -13894,6 +13889,11 @@
       </c>
       <c r="AG112" t="b">
         <v>0</v>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
@@ -13910,10 +13910,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>102607770</v>
+        <v>102658020</v>
       </c>
       <c r="B113" t="n">
-        <v>56395</v>
+        <v>57577</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13922,48 +13922,54 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>100109</v>
+        <v>208249</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>511023.8380336929</v>
+        <v>511146.3983825988</v>
       </c>
       <c r="R113" t="n">
-        <v>6729233.118388594</v>
+        <v>6729092.958862793</v>
       </c>
       <c r="S113" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -13982,12 +13988,12 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
@@ -13997,7 +14003,7 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
@@ -14011,13 +14017,9 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
+      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
-      </c>
-      <c r="AH113" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
@@ -14034,10 +14036,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>102658020</v>
+        <v>102657819</v>
       </c>
       <c r="B114" t="n">
-        <v>57577</v>
+        <v>56411</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -14046,25 +14048,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>208249</v>
+        <v>100049</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -14072,12 +14074,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -14087,10 +14088,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>511146.3983825988</v>
+        <v>511024.0833211067</v>
       </c>
       <c r="R114" t="n">
-        <v>6729092.958862793</v>
+        <v>6729153.30192639</v>
       </c>
       <c r="S114" t="n">
         <v>50</v>
@@ -14135,15 +14136,29 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>Även mycket färska spår efter spillkråka i området.</t>
+        </is>
+      </c>
       <c r="AD114" t="b">
         <v>0</v>
       </c>
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog med en hel del döda träd.</t>
+        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -14160,7 +14175,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>102657819</v>
+        <v>100436866</v>
       </c>
       <c r="B115" t="n">
         <v>56411</v>
@@ -14200,25 +14215,21 @@
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>511024.0833211067</v>
+        <v>510940.37168413</v>
       </c>
       <c r="R115" t="n">
-        <v>6729153.30192639</v>
+        <v>6729101.139026959</v>
       </c>
       <c r="S115" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -14242,27 +14253,22 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>Även mycket färska spår efter spillkråka i området.</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -14273,36 +14279,26 @@
       </c>
       <c r="AG115" t="b">
         <v>0</v>
-      </c>
-      <c r="AH115" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI115" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog med en hel del döda träd.</t>
-        </is>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>100436866</v>
+        <v>100387490</v>
       </c>
       <c r="B116" t="n">
-        <v>56411</v>
+        <v>89832</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14311,25 +14307,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>100049</v>
+        <v>1209</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -14337,9 +14333,8 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
@@ -14347,13 +14342,13 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>510940.37168413</v>
+        <v>511049.8548559378</v>
       </c>
       <c r="R116" t="n">
-        <v>6729101.139026959</v>
+        <v>6729225.853367806</v>
       </c>
       <c r="S116" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -14372,27 +14367,27 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -14401,6 +14396,7 @@
       <c r="AE116" t="b">
         <v>0</v>
       </c>
+      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
@@ -14419,10 +14415,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>100387490</v>
+        <v>102662262</v>
       </c>
       <c r="B117" t="n">
-        <v>89832</v>
+        <v>96367</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14431,25 +14427,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1209</v>
+        <v>219874</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -14458,21 +14454,26 @@
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Solberga Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>511049.8548559378</v>
+        <v>511000.7505357945</v>
       </c>
       <c r="R117" t="n">
-        <v>6729225.853367806</v>
+        <v>6729244.799589766</v>
       </c>
       <c r="S117" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
@@ -14506,7 +14507,7 @@
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
@@ -14524,25 +14525,35 @@
       <c r="AG117" t="b">
         <v>0</v>
       </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>Kalkrik naturskog</t>
+        </is>
+      </c>
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>102662262</v>
+        <v>102767561</v>
       </c>
       <c r="B118" t="n">
-        <v>96367</v>
+        <v>57575</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14555,21 +14566,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>219874</v>
+        <v>208250</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -14578,12 +14589,9 @@
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
@@ -14591,10 +14599,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>511000.7505357945</v>
+        <v>510968.515262216</v>
       </c>
       <c r="R118" t="n">
-        <v>6729244.799589766</v>
+        <v>6729200.630387762</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14621,7 +14629,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -14631,7 +14639,7 @@
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
@@ -14649,16 +14657,6 @@
       <c r="AG118" t="b">
         <v>0</v>
       </c>
-      <c r="AH118" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI118" t="inlineStr">
-        <is>
-          <t>Kalkrik naturskog</t>
-        </is>
-      </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
@@ -14667,17 +14665,17 @@
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>102767561</v>
+        <v>102767918</v>
       </c>
       <c r="B119" t="n">
-        <v>57575</v>
+        <v>96367</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14690,21 +14688,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>208250</v>
+        <v>219874</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14715,7 +14713,6 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
@@ -14723,10 +14720,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>510968.515262216</v>
+        <v>510979.3413734507</v>
       </c>
       <c r="R119" t="n">
-        <v>6729200.630387762</v>
+        <v>6729188.911285106</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14753,7 +14750,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>2022-08-07</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
@@ -14763,7 +14760,7 @@
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>2022-08-07</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
@@ -14789,14 +14786,14 @@
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>102767918</v>
+        <v>102766902</v>
       </c>
       <c r="B120" t="n">
         <v>96367</v>
@@ -14844,10 +14841,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>510979.3413734507</v>
+        <v>510957.4543848679</v>
       </c>
       <c r="R120" t="n">
-        <v>6729188.911285106</v>
+        <v>6729289.226686209</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14874,7 +14871,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
@@ -14884,7 +14881,7 @@
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
@@ -14910,17 +14907,17 @@
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>102766902</v>
+        <v>102833905</v>
       </c>
       <c r="B121" t="n">
-        <v>96367</v>
+        <v>96334</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14929,30 +14926,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -14965,10 +14962,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>510957.4543848679</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R121" t="n">
-        <v>6729289.226686209</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14990,12 +14987,12 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>2022-08-07</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
@@ -15005,12 +15002,17 @@
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>2022-08-07</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>Hundratals plantor, flera i blomning.</t>
         </is>
       </c>
       <c r="AD121" t="b">
@@ -15031,17 +15033,17 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>102833905</v>
+        <v>102833962</v>
       </c>
       <c r="B122" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -15050,35 +15052,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
@@ -15086,10 +15088,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>511154.783672709</v>
+        <v>510947.8068063587</v>
       </c>
       <c r="R122" t="n">
-        <v>6729077.804506998</v>
+        <v>6729236.313231963</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -15111,7 +15113,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -15134,18 +15136,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC122" t="inlineStr">
-        <is>
-          <t>Hundratals plantor, flera i blomning.</t>
-        </is>
-      </c>
       <c r="AD122" t="b">
         <v>0</v>
       </c>
       <c r="AE122" t="b">
         <v>0</v>
       </c>
-      <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="b">
         <v>0</v>
       </c>
@@ -15157,14 +15153,14 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>102833962</v>
+        <v>102834119</v>
       </c>
       <c r="B123" t="n">
         <v>56411</v>
@@ -15212,13 +15208,13 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>510947.8068063587</v>
+        <v>511070.9074334408</v>
       </c>
       <c r="R123" t="n">
-        <v>6729236.313231963</v>
+        <v>6729079.013751567</v>
       </c>
       <c r="S123" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
@@ -15237,12 +15233,12 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
@@ -15252,7 +15248,7 @@
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
@@ -15268,6 +15264,11 @@
       </c>
       <c r="AG123" t="b">
         <v>0</v>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
@@ -15277,17 +15278,17 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>102834119</v>
+        <v>102834143</v>
       </c>
       <c r="B124" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -15300,31 +15301,26 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
@@ -15332,13 +15328,13 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>511070.9074334408</v>
+        <v>511083.2483303695</v>
       </c>
       <c r="R124" t="n">
-        <v>6729079.013751567</v>
+        <v>6729212.245552664</v>
       </c>
       <c r="S124" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
@@ -15386,6 +15382,7 @@
       <c r="AE124" t="b">
         <v>0</v>
       </c>
+      <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="b">
         <v>0</v>
       </c>
@@ -15409,42 +15406,52 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>102834143</v>
+        <v>102660805</v>
       </c>
       <c r="B125" t="n">
-        <v>77506</v>
+        <v>57577</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6425</v>
+        <v>208249</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
@@ -15452,13 +15459,13 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>511083.2483303695</v>
+        <v>511152.8522096507</v>
       </c>
       <c r="R125" t="n">
-        <v>6729212.245552664</v>
+        <v>6729068.004648326</v>
       </c>
       <c r="S125" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -15482,7 +15489,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
@@ -15492,7 +15499,7 @@
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
@@ -15512,7 +15519,12 @@
       </c>
       <c r="AH125" t="inlineStr">
         <is>
-          <t>Skogsmark</t>
+          <t>Bäck</t>
+        </is>
+      </c>
+      <c r="AI125" t="inlineStr">
+        <is>
+          <t>Sumpigt skogsområde med mycket död ved invid bäck</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15523,59 +15535,49 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>102660805</v>
+        <v>103203561</v>
       </c>
       <c r="B126" t="n">
-        <v>57577</v>
+        <v>89392</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>208249</v>
+        <v>1202</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
       <c r="N126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
@@ -15583,13 +15585,13 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>511152.8522096507</v>
+        <v>510915.8511652788</v>
       </c>
       <c r="R126" t="n">
-        <v>6729068.004648326</v>
+        <v>6729261.188941267</v>
       </c>
       <c r="S126" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -15608,12 +15610,12 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
@@ -15623,7 +15625,7 @@
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
@@ -15637,39 +15639,28 @@
       <c r="AE126" t="b">
         <v>0</v>
       </c>
-      <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="b">
         <v>0</v>
-      </c>
-      <c r="AH126" t="inlineStr">
-        <is>
-          <t>Bäck</t>
-        </is>
-      </c>
-      <c r="AI126" t="inlineStr">
-        <is>
-          <t>Sumpigt skogsområde med mycket död ved invid bäck</t>
-        </is>
       </c>
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>103203561</v>
+        <v>103120367</v>
       </c>
       <c r="B127" t="n">
-        <v>89392</v>
+        <v>90696</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15682,40 +15673,44 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1202</v>
+        <v>5448</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>510915.8511652788</v>
+        <v>511045.6141322159</v>
       </c>
       <c r="R127" t="n">
-        <v>6729261.188941267</v>
+        <v>6729169.527615015</v>
       </c>
       <c r="S127" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -15734,27 +15729,27 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -15763,28 +15758,29 @@
       <c r="AE127" t="b">
         <v>0</v>
       </c>
+      <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="b">
         <v>0</v>
       </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>103203524</v>
+        <v>103521413</v>
       </c>
       <c r="B128" t="n">
-        <v>90282</v>
+        <v>89170</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15797,48 +15793,42 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4740</v>
+        <v>3215</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>510886.7552292389</v>
+        <v>510848.9239401667</v>
       </c>
       <c r="R128" t="n">
-        <v>6728828.698757193</v>
+        <v>6729011.247177176</v>
       </c>
       <c r="S128" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -15862,7 +15852,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
@@ -15872,7 +15862,7 @@
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
@@ -15892,22 +15882,22 @@
       <c r="AT128" t="inlineStr"/>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>103120367</v>
+        <v>103521455</v>
       </c>
       <c r="B129" t="n">
-        <v>90696</v>
+        <v>95525</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15916,45 +15906,44 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5448</v>
+        <v>221941</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>511045.6141322159</v>
+        <v>510877.8403916006</v>
       </c>
       <c r="R129" t="n">
-        <v>6729169.527615015</v>
+        <v>6729018.680245468</v>
       </c>
       <c r="S129" t="n">
         <v>25</v>
@@ -15981,22 +15970,22 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -16005,7 +15994,6 @@
       <c r="AE129" t="b">
         <v>0</v>
       </c>
-      <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="b">
         <v>0</v>
       </c>
@@ -16024,10 +16012,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>103521413</v>
+        <v>103663642</v>
       </c>
       <c r="B130" t="n">
-        <v>89170</v>
+        <v>90696</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -16036,43 +16024,45 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3215</v>
+        <v>5448</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>510848.9239401667</v>
+        <v>511050.4901240578</v>
       </c>
       <c r="R130" t="n">
-        <v>6729011.247177176</v>
+        <v>6729178.846529169</v>
       </c>
       <c r="S130" t="n">
         <v>25</v>
@@ -16099,7 +16089,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -16109,7 +16099,7 @@
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
@@ -16123,28 +16113,39 @@
       <c r="AE130" t="b">
         <v>0</v>
       </c>
+      <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="b">
         <v>0</v>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI130" t="inlineStr">
+        <is>
+          <t>Kalkrik naturskog</t>
+        </is>
       </c>
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>103521455</v>
+        <v>103723408</v>
       </c>
       <c r="B131" t="n">
-        <v>95525</v>
+        <v>96367</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -16157,21 +16158,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>221941</v>
+        <v>219874</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -16179,21 +16180,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>510877.8403916006</v>
+        <v>510864.591956121</v>
       </c>
       <c r="R131" t="n">
-        <v>6729018.680245468</v>
+        <v>6729344.275713152</v>
       </c>
       <c r="S131" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -16212,12 +16219,12 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
@@ -16227,7 +16234,7 @@
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
@@ -16241,28 +16248,39 @@
       <c r="AE131" t="b">
         <v>0</v>
       </c>
+      <c r="AF131" t="inlineStr"/>
       <c r="AG131" t="b">
         <v>0</v>
+      </c>
+      <c r="AH131" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI131" t="inlineStr">
+        <is>
+          <t>Naturskog med kalkpåverkan</t>
+        </is>
       </c>
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>103663642</v>
+        <v>103723144</v>
       </c>
       <c r="B132" t="n">
-        <v>90696</v>
+        <v>90674</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -16271,30 +16289,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -16306,13 +16324,13 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>511050.4901240578</v>
+        <v>511044.6060640615</v>
       </c>
       <c r="R132" t="n">
-        <v>6729178.846529169</v>
+        <v>6729178.338729832</v>
       </c>
       <c r="S132" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -16336,7 +16354,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
@@ -16346,12 +16364,17 @@
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>Gammalt exemplar (se bild).</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -16371,7 +16394,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>Kalkrik naturskog</t>
+          <t>Naturskog med kalkpåverkan</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -16389,7 +16412,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>103723408</v>
+        <v>103723276</v>
       </c>
       <c r="B133" t="n">
         <v>96367</v>
@@ -16441,10 +16464,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>510864.591956121</v>
+        <v>510880.8091965633</v>
       </c>
       <c r="R133" t="n">
-        <v>6729344.275713152</v>
+        <v>6729333.552433429</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16524,10 +16547,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>103723144</v>
+        <v>103800149</v>
       </c>
       <c r="B134" t="n">
-        <v>90674</v>
+        <v>96334</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16536,48 +16559,49 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solbergaskogen, Dlr</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>511044.6060640615</v>
+        <v>511089.8256388681</v>
       </c>
       <c r="R134" t="n">
-        <v>6729178.338729832</v>
+        <v>6729147.138696731</v>
       </c>
       <c r="S134" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T134" t="inlineStr">
         <is>
@@ -16601,7 +16625,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-08-21</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
@@ -16611,7 +16635,7 @@
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-08-21</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
@@ -16621,7 +16645,7 @@
       </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>Gammalt exemplar (se bild).</t>
+          <t>Minst 50</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -16634,35 +16658,25 @@
       <c r="AG134" t="b">
         <v>0</v>
       </c>
-      <c r="AH134" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI134" t="inlineStr">
-        <is>
-          <t>Naturskog med kalkpåverkan</t>
-        </is>
-      </c>
       <c r="AT134" t="inlineStr"/>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>103723276</v>
+        <v>103824798</v>
       </c>
       <c r="B135" t="n">
-        <v>96367</v>
+        <v>56411</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16671,39 +16685,35 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>219874</v>
+        <v>100049</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
@@ -16711,10 +16721,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>510880.8091965633</v>
+        <v>510915.2439616913</v>
       </c>
       <c r="R135" t="n">
-        <v>6729333.552433429</v>
+        <v>6728977.169132585</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16736,12 +16746,12 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -16751,7 +16761,7 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
@@ -16759,13 +16769,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC135" t="inlineStr">
+        <is>
+          <t>Färska spår av födosök och svart fjäder bredvid.</t>
+        </is>
+      </c>
       <c r="AD135" t="b">
         <v>0</v>
       </c>
       <c r="AE135" t="b">
         <v>0</v>
       </c>
-      <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="b">
         <v>0</v>
       </c>
@@ -16776,7 +16790,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>Naturskog med kalkpåverkan</t>
+          <t>Naturskog med kalkpåverkan och mycket asp samt en del döda stående och liggande träd.</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16787,17 +16801,17 @@
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>103800149</v>
+        <v>103824559</v>
       </c>
       <c r="B136" t="n">
-        <v>96334</v>
+        <v>90319</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16806,49 +16820,48 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Solbergaskogen, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>511089.8256388681</v>
+        <v>510821.3916808285</v>
       </c>
       <c r="R136" t="n">
-        <v>6729147.138696731</v>
+        <v>6729032.710789596</v>
       </c>
       <c r="S136" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -16872,7 +16885,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>2022-08-21</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -16882,17 +16895,12 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>2022-08-21</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC136" t="inlineStr">
-        <is>
-          <t>Minst 50</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -16905,25 +16913,35 @@
       <c r="AG136" t="b">
         <v>0</v>
       </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>Naturskog med kalkpåverkan</t>
+        </is>
+      </c>
       <c r="AT136" t="inlineStr"/>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Lars Johan Klockars</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>103824798</v>
+        <v>102834007</v>
       </c>
       <c r="B137" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16932,35 +16950,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
@@ -16968,10 +16986,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>510915.2439616913</v>
+        <v>511066.7464361298</v>
       </c>
       <c r="R137" t="n">
-        <v>6728977.169132585</v>
+        <v>6729155.881696784</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16998,7 +17016,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
@@ -17008,7 +17026,7 @@
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
@@ -17018,7 +17036,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>Färska spår av födosök och svart fjäder bredvid.</t>
+          <t>Hundratals och många blommande.</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -17027,17 +17045,13 @@
       <c r="AE137" t="b">
         <v>0</v>
       </c>
+      <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="b">
         <v>0</v>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
           <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>Naturskog med kalkpåverkan och mycket asp samt en del döda stående och liggande träd.</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -17048,17 +17062,17 @@
       </c>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>103824559</v>
+        <v>103914154</v>
       </c>
       <c r="B138" t="n">
-        <v>90319</v>
+        <v>96334</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -17067,48 +17081,45 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>510821.3916808285</v>
+        <v>511065.7383123473</v>
       </c>
       <c r="R138" t="n">
-        <v>6729032.710789596</v>
+        <v>6729164.692839296</v>
       </c>
       <c r="S138" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -17132,22 +17143,27 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>Koll av koordinat. Jämför med Paulas obs! Stämmer hennes koordinater?</t>
         </is>
       </c>
       <c r="AD138" t="b">
@@ -17160,35 +17176,25 @@
       <c r="AG138" t="b">
         <v>0</v>
       </c>
-      <c r="AH138" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI138" t="inlineStr">
-        <is>
-          <t>Naturskog med kalkpåverkan</t>
-        </is>
-      </c>
       <c r="AT138" t="inlineStr"/>
       <c r="AW138" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AY138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>102834007</v>
+        <v>103915363</v>
       </c>
       <c r="B139" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -17197,49 +17203,45 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>511066.7464361298</v>
+        <v>510724.8966814028</v>
       </c>
       <c r="R139" t="n">
-        <v>6729155.881696784</v>
+        <v>6729152.884644291</v>
       </c>
       <c r="S139" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T139" t="inlineStr">
         <is>
@@ -17258,32 +17260,27 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC139" t="inlineStr">
-        <is>
-          <t>Hundratals och många blommande.</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD139" t="b">
@@ -17296,30 +17293,25 @@
       <c r="AG139" t="b">
         <v>0</v>
       </c>
-      <c r="AH139" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AT139" t="inlineStr"/>
       <c r="AW139" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
         </is>
       </c>
       <c r="AY139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>103914154</v>
+        <v>103914529</v>
       </c>
       <c r="B140" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -17328,25 +17320,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -17360,10 +17352,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>511065.7383123473</v>
+        <v>510944.7789097469</v>
       </c>
       <c r="R140" t="n">
-        <v>6729164.692839296</v>
+        <v>6729264.215087198</v>
       </c>
       <c r="S140" t="n">
         <v>25</v>
@@ -17385,7 +17377,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -17395,7 +17387,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
@@ -17405,12 +17397,7 @@
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC140" t="inlineStr">
-        <is>
-          <t>Koll av koordinat. Jämför med Paulas obs! Stämmer hennes koordinater?</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -17419,7 +17406,6 @@
       <c r="AE140" t="b">
         <v>0</v>
       </c>
-      <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="b">
         <v>0</v>
       </c>
@@ -17431,14 +17417,14 @@
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
         </is>
       </c>
       <c r="AY140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>103915363</v>
+        <v>103915254</v>
       </c>
       <c r="B141" t="n">
         <v>98520</v>
@@ -17482,10 +17468,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>510724.8966814028</v>
+        <v>510833.0528408249</v>
       </c>
       <c r="R141" t="n">
-        <v>6729152.884644291</v>
+        <v>6728906.891443909</v>
       </c>
       <c r="S141" t="n">
         <v>25</v>
@@ -17507,7 +17493,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -17517,7 +17503,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
@@ -17527,7 +17513,12 @@
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC141" t="inlineStr">
+        <is>
+          <t>Rikligt i området.</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -17555,7 +17546,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>103914529</v>
+        <v>103915384</v>
       </c>
       <c r="B142" t="n">
         <v>98520</v>
@@ -17599,10 +17590,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>510944.7789097469</v>
+        <v>510723.2920736675</v>
       </c>
       <c r="R142" t="n">
-        <v>6729264.215087198</v>
+        <v>6729197.440576257</v>
       </c>
       <c r="S142" t="n">
         <v>25</v>
@@ -17634,7 +17625,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
@@ -17644,7 +17635,7 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -17653,6 +17644,7 @@
       <c r="AE142" t="b">
         <v>0</v>
       </c>
+      <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="b">
         <v>0</v>
       </c>
@@ -17671,7 +17663,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>103915254</v>
+        <v>103914385</v>
       </c>
       <c r="B143" t="n">
         <v>98520</v>
@@ -17715,10 +17707,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>510833.0528408249</v>
+        <v>510939.8923072599</v>
       </c>
       <c r="R143" t="n">
-        <v>6728906.891443909</v>
+        <v>6729258.324178798</v>
       </c>
       <c r="S143" t="n">
         <v>25</v>
@@ -17740,7 +17732,7 @@
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
@@ -17750,7 +17742,7 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
@@ -17760,12 +17752,7 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC143" t="inlineStr">
-        <is>
-          <t>Rikligt i området.</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -17774,7 +17761,6 @@
       <c r="AE143" t="b">
         <v>0</v>
       </c>
-      <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="b">
         <v>0</v>
       </c>
@@ -17793,7 +17779,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>103915384</v>
+        <v>103915344</v>
       </c>
       <c r="B144" t="n">
         <v>98520</v>
@@ -17837,10 +17823,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>510723.2920736675</v>
+        <v>510732.3708944406</v>
       </c>
       <c r="R144" t="n">
-        <v>6729197.440576257</v>
+        <v>6729113.732274621</v>
       </c>
       <c r="S144" t="n">
         <v>25</v>
@@ -17910,10 +17896,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>103914385</v>
+        <v>103915250</v>
       </c>
       <c r="B145" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17922,31 +17908,35 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
@@ -17954,10 +17944,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>510939.8923072599</v>
+        <v>510833.0528408249</v>
       </c>
       <c r="R145" t="n">
-        <v>6729258.324178798</v>
+        <v>6728906.891443909</v>
       </c>
       <c r="S145" t="n">
         <v>25</v>
@@ -17979,7 +17969,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -17989,7 +17979,7 @@
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
@@ -17999,7 +17989,7 @@
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD145" t="b">
@@ -18026,10 +18016,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>103915344</v>
+        <v>103950559</v>
       </c>
       <c r="B146" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -18038,42 +18028,41 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>510732.3708944406</v>
+        <v>511034.7967832719</v>
       </c>
       <c r="R146" t="n">
-        <v>6729113.732274621</v>
+        <v>6729178.308541631</v>
       </c>
       <c r="S146" t="n">
         <v>25</v>
@@ -18095,7 +18084,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -18105,7 +18094,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
@@ -18115,7 +18104,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -18131,22 +18120,22 @@
       <c r="AT146" t="inlineStr"/>
       <c r="AW146" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX146" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
+          <t>Paula Testad, Emma Billbäck</t>
         </is>
       </c>
       <c r="AY146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>103915250</v>
+        <v>103950646</v>
       </c>
       <c r="B147" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -18159,45 +18148,40 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>510833.0528408249</v>
+        <v>511051.0514884907</v>
       </c>
       <c r="R147" t="n">
-        <v>6728906.891443909</v>
+        <v>6729155.833311761</v>
       </c>
       <c r="S147" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -18226,7 +18210,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
@@ -18236,7 +18220,7 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -18245,28 +18229,29 @@
       <c r="AE147" t="b">
         <v>0</v>
       </c>
+      <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="b">
         <v>0</v>
       </c>
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
+          <t>Paula Testad, Emma Billbäck</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>103950559</v>
+        <v>103915336</v>
       </c>
       <c r="B148" t="n">
-        <v>89392</v>
+        <v>90319</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -18275,25 +18260,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -18302,14 +18287,14 @@
       <c r="N148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>511034.7967832719</v>
+        <v>510837.5894850459</v>
       </c>
       <c r="R148" t="n">
-        <v>6729178.308541631</v>
+        <v>6729028.842102048</v>
       </c>
       <c r="S148" t="n">
         <v>25</v>
@@ -18341,7 +18326,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
@@ -18351,7 +18336,12 @@
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>Rikligt på platsen.</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -18367,22 +18357,22 @@
       <c r="AT148" t="inlineStr"/>
       <c r="AW148" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX148" t="inlineStr">
         <is>
-          <t>Paula Testad, Emma Billbäck</t>
+          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
         </is>
       </c>
       <c r="AY148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>103950646</v>
+        <v>103915448</v>
       </c>
       <c r="B149" t="n">
-        <v>89392</v>
+        <v>90674</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18391,25 +18381,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -18418,17 +18408,17 @@
       <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>511051.0514884907</v>
+        <v>510987.3522673604</v>
       </c>
       <c r="R149" t="n">
-        <v>6729155.833311761</v>
+        <v>6729295.683754339</v>
       </c>
       <c r="S149" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -18447,7 +18437,7 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -18457,7 +18447,7 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
@@ -18467,7 +18457,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -18483,22 +18473,22 @@
       <c r="AT149" t="inlineStr"/>
       <c r="AW149" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX149" t="inlineStr">
         <is>
-          <t>Paula Testad, Emma Billbäck</t>
+          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
         </is>
       </c>
       <c r="AY149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>103915336</v>
+        <v>103951075</v>
       </c>
       <c r="B150" t="n">
-        <v>90319</v>
+        <v>89338</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -18507,25 +18497,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4769</v>
+        <v>112</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18534,14 +18524,14 @@
       <c r="N150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>510837.5894850459</v>
+        <v>511078.6567764828</v>
       </c>
       <c r="R150" t="n">
-        <v>6729028.842102048</v>
+        <v>6729110.867498814</v>
       </c>
       <c r="S150" t="n">
         <v>25</v>
@@ -18568,27 +18558,27 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>Rikligt på platsen.</t>
+          <t>Under granlåga och nära marken i naturskog.</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -18604,22 +18594,22 @@
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>103915448</v>
+        <v>103914680</v>
       </c>
       <c r="B151" t="n">
-        <v>90674</v>
+        <v>56395</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18628,30 +18618,35 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5964</v>
+        <v>100109</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
@@ -18659,10 +18654,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>510987.3522673604</v>
+        <v>510902.2256411187</v>
       </c>
       <c r="R151" t="n">
-        <v>6729295.683754339</v>
+        <v>6729225.891320505</v>
       </c>
       <c r="S151" t="n">
         <v>25</v>
@@ -18694,7 +18689,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
@@ -18704,7 +18699,12 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>Ringhack.</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -18713,7 +18713,6 @@
       <c r="AE151" t="b">
         <v>0</v>
       </c>
-      <c r="AF151" t="inlineStr"/>
       <c r="AG151" t="b">
         <v>0</v>
       </c>
@@ -18732,10 +18731,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>103951075</v>
+        <v>103950384</v>
       </c>
       <c r="B152" t="n">
-        <v>89338</v>
+        <v>56411</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18748,26 +18747,31 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>112</v>
+        <v>100049</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
@@ -18775,10 +18779,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>511078.6567764828</v>
+        <v>510838.2367904221</v>
       </c>
       <c r="R152" t="n">
-        <v>6729110.867498814</v>
+        <v>6728976.93565744</v>
       </c>
       <c r="S152" t="n">
         <v>25</v>
@@ -18805,7 +18809,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
@@ -18815,7 +18819,7 @@
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr">
@@ -18823,18 +18827,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>Under granlåga och nära marken i naturskog.</t>
-        </is>
-      </c>
       <c r="AD152" t="b">
         <v>0</v>
       </c>
       <c r="AE152" t="b">
         <v>0</v>
       </c>
-      <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="b">
         <v>0</v>
       </c>
@@ -18853,10 +18851,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>103914680</v>
+        <v>103915304</v>
       </c>
       <c r="B153" t="n">
-        <v>56395</v>
+        <v>89170</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18865,35 +18863,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>100109</v>
+        <v>3215</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
@@ -18901,10 +18894,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>510902.2256411187</v>
+        <v>510852.8419092305</v>
       </c>
       <c r="R153" t="n">
-        <v>6729225.891320505</v>
+        <v>6729013.217830352</v>
       </c>
       <c r="S153" t="n">
         <v>25</v>
@@ -18926,7 +18919,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -18936,7 +18929,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
@@ -18946,12 +18939,7 @@
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>12:31</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>Ringhack.</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -18960,6 +18948,7 @@
       <c r="AE153" t="b">
         <v>0</v>
       </c>
+      <c r="AF153" t="inlineStr"/>
       <c r="AG153" t="b">
         <v>0</v>
       </c>
@@ -18978,10 +18967,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>103950384</v>
+        <v>103950479</v>
       </c>
       <c r="B154" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18994,31 +18983,26 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
@@ -19026,10 +19010,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>510838.2367904221</v>
+        <v>510914.0428061235</v>
       </c>
       <c r="R154" t="n">
-        <v>6728976.93565744</v>
+        <v>6729210.747403163</v>
       </c>
       <c r="S154" t="n">
         <v>25</v>
@@ -19051,7 +19035,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -19080,6 +19064,7 @@
       <c r="AE154" t="b">
         <v>0</v>
       </c>
+      <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="b">
         <v>0</v>
       </c>
@@ -19091,17 +19076,17 @@
       </c>
       <c r="AX154" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Emma Billbäck</t>
         </is>
       </c>
       <c r="AY154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>103915304</v>
+        <v>103951344</v>
       </c>
       <c r="B155" t="n">
-        <v>89170</v>
+        <v>89392</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -19110,25 +19095,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3215</v>
+        <v>1202</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -19137,14 +19122,14 @@
       <c r="N155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>510852.8419092305</v>
+        <v>511078.6567764828</v>
       </c>
       <c r="R155" t="n">
-        <v>6729013.217830352</v>
+        <v>6729110.867498814</v>
       </c>
       <c r="S155" t="n">
         <v>25</v>
@@ -19171,22 +19156,22 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -19199,25 +19184,35 @@
       <c r="AG155" t="b">
         <v>0</v>
       </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>På granlåga i naturskog med mycket död ved.</t>
+        </is>
+      </c>
       <c r="AT155" t="inlineStr"/>
       <c r="AW155" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX155" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Anders Janols, Emma Billbäck, Lars Johan Klockars, Paula Testad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>103950479</v>
+        <v>104164706</v>
       </c>
       <c r="B156" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -19226,25 +19221,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -19257,10 +19252,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>510914.0428061235</v>
+        <v>511078.0271796561</v>
       </c>
       <c r="R156" t="n">
-        <v>6729210.747403163</v>
+        <v>6729155.916515933</v>
       </c>
       <c r="S156" t="n">
         <v>25</v>
@@ -19282,12 +19277,12 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
@@ -19297,7 +19292,7 @@
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr">
@@ -19315,6 +19310,16 @@
       <c r="AG156" t="b">
         <v>0</v>
       </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI156" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket liggande död ved.</t>
+        </is>
+      </c>
       <c r="AT156" t="inlineStr"/>
       <c r="AW156" t="inlineStr">
         <is>
@@ -19323,17 +19328,17 @@
       </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>Paula Testad, Emma Billbäck</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>103951344</v>
+        <v>104166011</v>
       </c>
       <c r="B157" t="n">
-        <v>89392</v>
+        <v>85002</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19342,25 +19347,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1202</v>
+        <v>3295</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Clavulinopsis helvola</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Corner</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -19373,10 +19378,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>511078.6567764828</v>
+        <v>511088.4995415923</v>
       </c>
       <c r="R157" t="n">
-        <v>6729110.867498814</v>
+        <v>6729100.124770028</v>
       </c>
       <c r="S157" t="n">
         <v>25</v>
@@ -19403,7 +19408,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
@@ -19413,7 +19418,7 @@
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
@@ -19438,7 +19443,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>På granlåga i naturskog med mycket död ved.</t>
+          <t>Kalkrik naturskog med mycket asp, förm tidigare åker</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -19449,17 +19454,17 @@
       </c>
       <c r="AX157" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>104164706</v>
+        <v>104164619</v>
       </c>
       <c r="B158" t="n">
-        <v>89832</v>
+        <v>56401</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -19468,30 +19473,39 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1209</v>
+        <v>100048</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
@@ -19499,10 +19513,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>511078.0271796561</v>
+        <v>510865.5214197066</v>
       </c>
       <c r="R158" t="n">
-        <v>6729155.916515933</v>
+        <v>6729199.337592339</v>
       </c>
       <c r="S158" t="n">
         <v>25</v>
@@ -19524,7 +19538,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -19547,13 +19561,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>Sökande föda lågt på grangrenar.</t>
+        </is>
+      </c>
       <c r="AD158" t="b">
         <v>0</v>
       </c>
       <c r="AE158" t="b">
         <v>0</v>
       </c>
-      <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="b">
         <v>0</v>
       </c>
@@ -19564,7 +19582,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>Naturskog med mycket liggande död ved.</t>
+          <t>Naturskog med mycket asp och döda träd.</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -19582,10 +19600,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>104166011</v>
+        <v>104401487</v>
       </c>
       <c r="B159" t="n">
-        <v>85002</v>
+        <v>55608</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19594,41 +19612,50 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3295</v>
+        <v>102612</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Clavulinopsis helvola</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Corner</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>511088.4995415923</v>
+        <v>511138.1317538506</v>
       </c>
       <c r="R159" t="n">
-        <v>6729100.124770028</v>
+        <v>6729069.917686411</v>
       </c>
       <c r="S159" t="n">
         <v>25</v>
@@ -19655,22 +19682,22 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -19679,39 +19706,28 @@
       <c r="AE159" t="b">
         <v>0</v>
       </c>
-      <c r="AF159" t="inlineStr"/>
       <c r="AG159" t="b">
         <v>0</v>
-      </c>
-      <c r="AH159" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI159" t="inlineStr">
-        <is>
-          <t>Kalkrik naturskog med mycket asp, förm tidigare åker</t>
-        </is>
       </c>
       <c r="AT159" t="inlineStr"/>
       <c r="AW159" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX159" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>104164619</v>
+        <v>104857177</v>
       </c>
       <c r="B160" t="n">
-        <v>56401</v>
+        <v>56411</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19724,16 +19740,16 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>100048</v>
+        <v>100049</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -19750,7 +19766,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>stationär</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
@@ -19760,10 +19776,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>510865.5214197066</v>
+        <v>511082.9651340293</v>
       </c>
       <c r="R160" t="n">
-        <v>6729199.337592339</v>
+        <v>6729145.158763833</v>
       </c>
       <c r="S160" t="n">
         <v>25</v>
@@ -19785,12 +19801,12 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
@@ -19800,7 +19816,7 @@
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
@@ -19810,7 +19826,7 @@
       </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>Sökande föda lågt på grangrenar.</t>
+          <t>Spillkråka som födosökte lågt på gammal gran och lät ett av sina läten.</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -19829,7 +19845,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>Naturskog med mycket asp och döda träd.</t>
+          <t>Naturskog med mycket stående och liggande död ved.</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19840,17 +19856,17 @@
       </c>
       <c r="AX160" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>104401487</v>
+        <v>104464619</v>
       </c>
       <c r="B161" t="n">
-        <v>55608</v>
+        <v>90645</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19863,46 +19879,37 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>102612</v>
+        <v>4361</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>511138.1317538506</v>
+        <v>510781.6565959427</v>
       </c>
       <c r="R161" t="n">
-        <v>6729069.917686411</v>
+        <v>6729034.549939587</v>
       </c>
       <c r="S161" t="n">
         <v>25</v>
@@ -19929,22 +19936,22 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD161" t="b">
@@ -19959,22 +19966,22 @@
       <c r="AT161" t="inlineStr"/>
       <c r="AW161" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX161" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Cecilia Rastad, Bo karlstens, Paula Testad</t>
         </is>
       </c>
       <c r="AY161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>104857177</v>
+        <v>104464427</v>
       </c>
       <c r="B162" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19983,50 +19990,43 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
+      <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>511082.9651340293</v>
+        <v>510749.2839482737</v>
       </c>
       <c r="R162" t="n">
-        <v>6729145.158763833</v>
+        <v>6729362.045516205</v>
       </c>
       <c r="S162" t="n">
         <v>25</v>
@@ -20048,32 +20048,27 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>Spillkråka som födosökte lågt på gammal gran och lät ett av sina läten.</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -20084,36 +20079,26 @@
       </c>
       <c r="AG162" t="b">
         <v>0</v>
-      </c>
-      <c r="AH162" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI162" t="inlineStr">
-        <is>
-          <t>Naturskog med mycket stående och liggande död ved.</t>
-        </is>
       </c>
       <c r="AT162" t="inlineStr"/>
       <c r="AW162" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Cecilia Rastad</t>
         </is>
       </c>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Cecilia Rastad, Bo karlstens, Paula Testad</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>104464619</v>
+        <v>104464436</v>
       </c>
       <c r="B163" t="n">
-        <v>90645</v>
+        <v>98520</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -20122,30 +20107,31 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
@@ -20153,10 +20139,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>510781.6565959427</v>
+        <v>510776.2757390509</v>
       </c>
       <c r="R163" t="n">
-        <v>6729034.549939587</v>
+        <v>6729356.250665402</v>
       </c>
       <c r="S163" t="n">
         <v>25</v>
@@ -20178,7 +20164,7 @@
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
@@ -20188,7 +20174,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
@@ -20198,7 +20184,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -20225,7 +20211,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>104464427</v>
+        <v>104464469</v>
       </c>
       <c r="B164" t="n">
         <v>5113</v>
@@ -20270,10 +20256,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>510749.2839482737</v>
+        <v>510799.9672181607</v>
       </c>
       <c r="R164" t="n">
-        <v>6729362.045516205</v>
+        <v>6729306.376888956</v>
       </c>
       <c r="S164" t="n">
         <v>25</v>
@@ -20305,7 +20291,7 @@
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
@@ -20315,7 +20301,7 @@
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -20342,10 +20328,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>104464436</v>
+        <v>104464671</v>
       </c>
       <c r="B165" t="n">
-        <v>98520</v>
+        <v>96251</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20358,21 +20344,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>222498</v>
+        <v>219790</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -20386,10 +20372,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>510776.2757390509</v>
+        <v>510807.0326781427</v>
       </c>
       <c r="R165" t="n">
-        <v>6729356.250665402</v>
+        <v>6728914.648397977</v>
       </c>
       <c r="S165" t="n">
         <v>25</v>
@@ -20411,7 +20397,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -20421,7 +20407,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>15:51</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
@@ -20431,7 +20417,7 @@
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>15:51</t>
         </is>
       </c>
       <c r="AD165" t="b">
@@ -20458,10 +20444,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>104464469</v>
+        <v>104464379</v>
       </c>
       <c r="B166" t="n">
-        <v>5113</v>
+        <v>90319</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20474,28 +20460,26 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
@@ -20503,10 +20487,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>510799.9672181607</v>
+        <v>510776.2757390509</v>
       </c>
       <c r="R166" t="n">
-        <v>6729306.376888956</v>
+        <v>6729356.250665402</v>
       </c>
       <c r="S166" t="n">
         <v>25</v>
@@ -20538,7 +20522,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
@@ -20548,7 +20532,7 @@
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD166" t="b">
@@ -20575,10 +20559,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>104464671</v>
+        <v>104464391</v>
       </c>
       <c r="B167" t="n">
-        <v>96251</v>
+        <v>90645</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20587,31 +20571,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>219790</v>
+        <v>4361</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
@@ -20619,10 +20602,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>510807.0326781427</v>
+        <v>510776.2757390509</v>
       </c>
       <c r="R167" t="n">
-        <v>6728914.648397977</v>
+        <v>6729356.250665402</v>
       </c>
       <c r="S167" t="n">
         <v>25</v>
@@ -20644,7 +20627,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -20654,7 +20637,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>15:51</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
@@ -20664,7 +20647,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>15:51</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -20691,10 +20674,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>104464379</v>
+        <v>104464657</v>
       </c>
       <c r="B168" t="n">
-        <v>90319</v>
+        <v>98520</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20707,26 +20690,27 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
@@ -20734,10 +20718,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>510776.2757390509</v>
+        <v>510830.0906157838</v>
       </c>
       <c r="R168" t="n">
-        <v>6729356.250665402</v>
+        <v>6728913.248789012</v>
       </c>
       <c r="S168" t="n">
         <v>25</v>
@@ -20759,7 +20743,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -20769,7 +20753,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
@@ -20779,7 +20763,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -20806,10 +20790,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>104464391</v>
+        <v>100187374</v>
       </c>
       <c r="B169" t="n">
-        <v>90645</v>
+        <v>89832</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20818,41 +20802,39 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4361</v>
+        <v>1209</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>510776.2757390509</v>
+        <v>510773.2639810541</v>
       </c>
       <c r="R169" t="n">
-        <v>6729356.250665402</v>
+        <v>6729379.255271118</v>
       </c>
       <c r="S169" t="n">
         <v>25</v>
@@ -20879,22 +20861,22 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -20909,22 +20891,22 @@
       <c r="AT169" t="inlineStr"/>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Bo karlstens, Paula Testad</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>104464657</v>
+        <v>100187120</v>
       </c>
       <c r="B170" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20933,42 +20915,39 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>Solberga, Insjön, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>510830.0906157838</v>
+        <v>510773.2639810541</v>
       </c>
       <c r="R170" t="n">
-        <v>6728913.248789012</v>
+        <v>6729379.255271118</v>
       </c>
       <c r="S170" t="n">
         <v>25</v>
@@ -20990,27 +20969,27 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD170" t="b">
@@ -21025,22 +21004,22 @@
       <c r="AT170" t="inlineStr"/>
       <c r="AW170" t="inlineStr">
         <is>
-          <t>Cecilia Rastad</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>Cecilia Rastad, Bo karlstens, Paula Testad</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>100187374</v>
+        <v>106607899</v>
       </c>
       <c r="B171" t="n">
-        <v>89832</v>
+        <v>56411</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -21049,39 +21028,50 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>510773.2639810541</v>
+        <v>511063.1564415332</v>
       </c>
       <c r="R171" t="n">
-        <v>6729379.255271118</v>
+        <v>6729047.649431076</v>
       </c>
       <c r="S171" t="n">
         <v>25</v>
@@ -21103,27 +21093,27 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD171" t="b">
@@ -21134,26 +21124,36 @@
       </c>
       <c r="AG171" t="b">
         <v>0</v>
+      </c>
+      <c r="AH171" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI171" t="inlineStr">
+        <is>
+          <t>Naturskog med en del stående och liggande död ved och en hel del gamla aspar.</t>
+        </is>
       </c>
       <c r="AT171" t="inlineStr"/>
       <c r="AW171" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX171" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>100187120</v>
+        <v>106607868</v>
       </c>
       <c r="B172" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -21166,38 +21166,45 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>510773.2639810541</v>
+        <v>511110.8535917113</v>
       </c>
       <c r="R172" t="n">
-        <v>6729379.255271118</v>
+        <v>6729167.280692435</v>
       </c>
       <c r="S172" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
@@ -21216,27 +21223,32 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>Färska spår av spillkråka på granstam där flisor hackats bort och ligger på snön. (Se bild).</t>
         </is>
       </c>
       <c r="AD172" t="b">
@@ -21247,26 +21259,36 @@
       </c>
       <c r="AG172" t="b">
         <v>0</v>
+      </c>
+      <c r="AH172" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>Naturskog med en hel del stående och liggande död ved.</t>
+        </is>
       </c>
       <c r="AT172" t="inlineStr"/>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>106607899</v>
+        <v>107814040</v>
       </c>
       <c r="B173" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21279,16 +21301,16 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -21296,16 +21318,12 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
@@ -21315,10 +21333,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>511063.1564415332</v>
+        <v>511067.3048863774</v>
       </c>
       <c r="R173" t="n">
-        <v>6729047.649431076</v>
+        <v>6729133.847694029</v>
       </c>
       <c r="S173" t="n">
         <v>25</v>
@@ -21345,22 +21363,27 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>Svårt att veta hur färska spåren är, men skogen är under året noggrannt inventerad av många personer och fynden har inte hittats tidigare. Ringhacken finns här på två olika granar.</t>
         </is>
       </c>
       <c r="AD173" t="b">
@@ -21379,7 +21402,7 @@
       </c>
       <c r="AI173" t="inlineStr">
         <is>
-          <t>Naturskog med en del stående och liggande död ved och en hel del gamla aspar.</t>
+          <t>Kontinuitetsskog/naturskog med en hel del liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT173" t="inlineStr"/>
@@ -21397,10 +21420,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>106607868</v>
+        <v>108244195</v>
       </c>
       <c r="B174" t="n">
-        <v>56411</v>
+        <v>89673</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21413,31 +21436,30 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>100049</v>
+        <v>658</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
@@ -21445,13 +21467,13 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>511110.8535917113</v>
+        <v>511063.8564928034</v>
       </c>
       <c r="R174" t="n">
-        <v>6729167.280692435</v>
+        <v>6729138.733896401</v>
       </c>
       <c r="S174" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -21475,7 +21497,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
@@ -21485,7 +21507,7 @@
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr">
@@ -21493,17 +21515,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC174" t="inlineStr">
-        <is>
-          <t>Färska spår av spillkråka på granstam där flisor hackats bort och ligger på snön. (Se bild).</t>
-        </is>
-      </c>
       <c r="AD174" t="b">
         <v>0</v>
       </c>
       <c r="AE174" t="b">
         <v>0</v>
       </c>
+      <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="b">
         <v>0</v>
       </c>
@@ -21514,7 +21532,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del stående och liggande död ved.</t>
+          <t>Naturskog med områden med mycket liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -21532,10 +21550,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>107179269</v>
+        <v>102403671</v>
       </c>
       <c r="B175" t="n">
-        <v>56411</v>
+        <v>57498</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21544,25 +21562,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>100049</v>
+        <v>100092</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schreber, 1774)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21570,11 +21588,12 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>aktiv</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
@@ -21584,13 +21603,13 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>510873.9870787198</v>
+        <v>511023.8667250552</v>
       </c>
       <c r="R175" t="n">
-        <v>6728833.557288054</v>
+        <v>6729064.178105745</v>
       </c>
       <c r="S175" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -21614,22 +21633,27 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>Flög förbi och vidare längs skogsstig. Nära liten damm. Upplevde den ganska stor.</t>
         </is>
       </c>
       <c r="AD175" t="b">
@@ -21656,10 +21680,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>107814040</v>
+        <v>110865861</v>
       </c>
       <c r="B176" t="n">
-        <v>56395</v>
+        <v>56398</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21689,25 +21713,41 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>511067.3048863774</v>
+        <v>510827.897540989</v>
       </c>
       <c r="R176" t="n">
-        <v>6729133.847694029</v>
+        <v>6729314.785311161</v>
       </c>
       <c r="S176" t="n">
         <v>25</v>
@@ -21729,32 +21769,32 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>Svårt att veta hur färska spåren är, men skogen är under året noggrannt inventerad av många personer och fynden har inte hittats tidigare. Ringhacken finns här på två olika granar.</t>
+          <t>Födosökande långt ner på död gran.</t>
         </is>
       </c>
       <c r="AD176" t="b">
@@ -21765,36 +21805,26 @@
       </c>
       <c r="AG176" t="b">
         <v>0</v>
-      </c>
-      <c r="AH176" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI176" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskog/naturskog med en hel del liggande och stående död ved.</t>
-        </is>
       </c>
       <c r="AT176" t="inlineStr"/>
       <c r="AW176" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>108244195</v>
+        <v>110865827</v>
       </c>
       <c r="B177" t="n">
-        <v>89673</v>
+        <v>56398</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21807,21 +21837,21 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21829,19 +21859,32 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>Solberga, Dlr</t>
+          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>511063.8564928034</v>
+        <v>510859.4120451004</v>
       </c>
       <c r="R177" t="n">
-        <v>6729138.733896401</v>
+        <v>6729273.259285299</v>
       </c>
       <c r="S177" t="n">
         <v>50</v>
@@ -21863,27 +21906,27 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="AD177" t="b">
@@ -21892,39 +21935,28 @@
       <c r="AE177" t="b">
         <v>0</v>
       </c>
-      <c r="AF177" t="inlineStr"/>
       <c r="AG177" t="b">
         <v>0</v>
-      </c>
-      <c r="AH177" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI177" t="inlineStr">
-        <is>
-          <t>Naturskog med områden med mycket liggande och stående död ved.</t>
-        </is>
       </c>
       <c r="AT177" t="inlineStr"/>
       <c r="AW177" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX177" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>102403671</v>
+        <v>111364164</v>
       </c>
       <c r="B178" t="n">
-        <v>57498</v>
+        <v>56543</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21933,25 +21965,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>100092</v>
+        <v>103021</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21959,12 +21991,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
         <is>
-          <t>aktiv</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
@@ -21974,13 +22005,13 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>511023.8667250552</v>
+        <v>510833.9943673855</v>
       </c>
       <c r="R178" t="n">
-        <v>6729064.178105745</v>
+        <v>6729244.781738547</v>
       </c>
       <c r="S178" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -21999,32 +22030,27 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="AC178" t="inlineStr">
-        <is>
-          <t>Flög förbi och vidare längs skogsstig. Nära liten damm. Upplevde den ganska stor.</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD178" t="b">
@@ -22035,6 +22061,16 @@
       </c>
       <c r="AG178" t="b">
         <v>0</v>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI178" t="inlineStr">
+        <is>
+          <t>Naturskog med en hel del död stående och liggande ved i detta område.</t>
+        </is>
       </c>
       <c r="AT178" t="inlineStr"/>
       <c r="AW178" t="inlineStr">
@@ -22051,10 +22087,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>110865861</v>
+        <v>111617935</v>
       </c>
       <c r="B179" t="n">
-        <v>56398</v>
+        <v>88966</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -22067,58 +22103,41 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>510827.897540989</v>
+        <v>511154.783672709</v>
       </c>
       <c r="R179" t="n">
-        <v>6729314.785311161</v>
+        <v>6729077.804506998</v>
       </c>
       <c r="S179" t="n">
         <v>25</v>
@@ -22140,32 +22159,27 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="AC179" t="inlineStr">
-        <is>
-          <t>Födosökande långt ner på död gran.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD179" t="b">
@@ -22174,28 +22188,39 @@
       <c r="AE179" t="b">
         <v>0</v>
       </c>
+      <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="b">
         <v>0</v>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI179" t="inlineStr">
+        <is>
+          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+        </is>
       </c>
       <c r="AT179" t="inlineStr"/>
       <c r="AW179" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX179" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>110865827</v>
+        <v>111617437</v>
       </c>
       <c r="B180" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22208,21 +22233,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -22238,27 +22263,23 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>Solberga Insjön, Solberga, Insjön, Dlr</t>
+          <t>Solberga, Dlr</t>
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>510859.4120451004</v>
+        <v>511099.8728860362</v>
       </c>
       <c r="R180" t="n">
-        <v>6729273.259285299</v>
+        <v>6729070.288796146</v>
       </c>
       <c r="S180" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T180" t="inlineStr">
         <is>
@@ -22277,27 +22298,27 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD180" t="b">
@@ -22308,26 +22329,36 @@
       </c>
       <c r="AG180" t="b">
         <v>0</v>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI180" t="inlineStr">
+        <is>
+          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
+        </is>
       </c>
       <c r="AT180" t="inlineStr"/>
       <c r="AW180" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX180" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111364164</v>
+        <v>111771752</v>
       </c>
       <c r="B181" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22336,39 +22367,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
@@ -22376,13 +22398,13 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>510833.9943673855</v>
+        <v>511047</v>
       </c>
       <c r="R181" t="n">
-        <v>6729244.781738547</v>
+        <v>6729128</v>
       </c>
       <c r="S181" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -22401,27 +22423,22 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
-        </is>
-      </c>
-      <c r="Z181" t="inlineStr">
-        <is>
-          <t>19:40</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
-        </is>
-      </c>
-      <c r="AB181" t="inlineStr">
-        <is>
-          <t>19:40</t>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>Färsk och rikligt på låga av gran.</t>
         </is>
       </c>
       <c r="AD181" t="b">
@@ -22430,6 +22447,7 @@
       <c r="AE181" t="b">
         <v>0</v>
       </c>
+      <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="b">
         <v>0</v>
       </c>
@@ -22440,7 +22458,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>Naturskog med en hel del död stående och liggande ved i detta område.</t>
+          <t>Naturskog med en hel del liggande och stående död ved,</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22458,10 +22476,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111617935</v>
+        <v>111772348</v>
       </c>
       <c r="B182" t="n">
-        <v>88966</v>
+        <v>89845</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22470,32 +22488,28 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5754</v>
+        <v>1209</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
@@ -22505,13 +22519,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>511154.783672709</v>
+        <v>511052</v>
       </c>
       <c r="R182" t="n">
-        <v>6729077.804506998</v>
+        <v>6729120</v>
       </c>
       <c r="S182" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -22535,22 +22549,12 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="AB182" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="AD182" t="b">
@@ -22570,7 +22574,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>Naturskog: källpåverkad och kalkhaltig mark med lågt örtskikt och bl a mycket knärot i området.</t>
+          <t>Naturskog med en hel del liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22588,10 +22592,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111617437</v>
+        <v>102062640</v>
       </c>
       <c r="B183" t="n">
-        <v>56543</v>
+        <v>103250</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22600,43 +22604,35 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>103021</v>
+        <v>221725</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22644,13 +22640,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>511099.8728860362</v>
+        <v>510852.8743588758</v>
       </c>
       <c r="R183" t="n">
-        <v>6729070.288796146</v>
+        <v>6728840.349501666</v>
       </c>
       <c r="S183" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -22674,22 +22670,22 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22698,38 +22694,29 @@
       <c r="AE183" t="b">
         <v>0</v>
       </c>
+      <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="b">
         <v>0</v>
-      </c>
-      <c r="AH183" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI183" t="inlineStr">
-        <is>
-          <t>Naturskog (mest gran) med en hel del död stående och liggande ved</t>
-        </is>
       </c>
       <c r="AT183" t="inlineStr"/>
       <c r="AW183" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111771752</v>
+        <v>103203524</v>
       </c>
       <c r="B184" t="n">
-        <v>89845</v>
+        <v>90282</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22738,29 +22725,37 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1209</v>
+        <v>4740</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
@@ -22769,10 +22764,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>511047</v>
+        <v>510886.7552292389</v>
       </c>
       <c r="R184" t="n">
-        <v>6729128</v>
+        <v>6728828.698757193</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22799,17 +22794,22 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AC184" t="inlineStr">
-        <is>
-          <t>Färsk och rikligt på låga av gran.</t>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD184" t="b">
@@ -22818,39 +22818,28 @@
       <c r="AE184" t="b">
         <v>0</v>
       </c>
-      <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="b">
         <v>0</v>
-      </c>
-      <c r="AH184" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI184" t="inlineStr">
-        <is>
-          <t>Naturskog med en hel del liggande och stående död ved,</t>
-        </is>
       </c>
       <c r="AT184" t="inlineStr"/>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111772348</v>
+        <v>107179269</v>
       </c>
       <c r="B185" t="n">
-        <v>89845</v>
+        <v>56411</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22859,30 +22848,39 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
@@ -22890,13 +22888,13 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>511052</v>
+        <v>510873.9870787198</v>
       </c>
       <c r="R185" t="n">
-        <v>6729120</v>
+        <v>6728833.557288054</v>
       </c>
       <c r="S185" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T185" t="inlineStr">
         <is>
@@ -22920,12 +22918,22 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD185" t="b">
@@ -22934,19 +22942,8 @@
       <c r="AE185" t="b">
         <v>0</v>
       </c>
-      <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="b">
         <v>0</v>
-      </c>
-      <c r="AH185" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI185" t="inlineStr">
-        <is>
-          <t>Naturskog med en hel del liggande och stående död ved.</t>
-        </is>
       </c>
       <c r="AT185" t="inlineStr"/>
       <c r="AW185" t="inlineStr">

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY185"/>
+  <dimension ref="A1:AY204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22592,10 +22592,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>102062640</v>
+        <v>112506030</v>
       </c>
       <c r="B183" t="n">
-        <v>103250</v>
+        <v>90480</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22608,31 +22608,30 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>221725</v>
+        <v>4769</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
@@ -22640,10 +22639,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>510852.8743588758</v>
+        <v>510956</v>
       </c>
       <c r="R183" t="n">
-        <v>6728840.349501666</v>
+        <v>6729318</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22665,27 +22664,17 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
-        </is>
-      </c>
-      <c r="Z183" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
-        </is>
-      </c>
-      <c r="AB183" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22701,22 +22690,22 @@
       <c r="AT183" t="inlineStr"/>
       <c r="AW183" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>103203524</v>
+        <v>112504384</v>
       </c>
       <c r="B184" t="n">
-        <v>90282</v>
+        <v>89094</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22725,37 +22714,33 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4740</v>
+        <v>256335</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
@@ -22764,10 +22749,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>510886.7552292389</v>
+        <v>511012</v>
       </c>
       <c r="R184" t="n">
-        <v>6728828.698757193</v>
+        <v>6729070</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22794,22 +22779,12 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="AB184" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD184" t="b">
@@ -22818,28 +22793,39 @@
       <c r="AE184" t="b">
         <v>0</v>
       </c>
+      <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="b">
         <v>0</v>
+      </c>
+      <c r="AH184" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI184" t="inlineStr">
+        <is>
+          <t>Kalkgranskog. Naturskog.</t>
+        </is>
       </c>
       <c r="AT184" t="inlineStr"/>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>107179269</v>
+        <v>112506048</v>
       </c>
       <c r="B185" t="n">
-        <v>56411</v>
+        <v>90480</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22848,39 +22834,34 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>100049</v>
+        <v>4769</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
@@ -22888,13 +22869,13 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>510873.9870787198</v>
+        <v>510897</v>
       </c>
       <c r="R185" t="n">
-        <v>6728833.557288054</v>
+        <v>6729325</v>
       </c>
       <c r="S185" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T185" t="inlineStr">
         <is>
@@ -22913,27 +22894,17 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
-        </is>
-      </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
-        </is>
-      </c>
-      <c r="AB185" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD185" t="b">
@@ -22942,8 +22913,19 @@
       <c r="AE185" t="b">
         <v>0</v>
       </c>
+      <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="b">
         <v>0</v>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI185" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT185" t="inlineStr"/>
       <c r="AW185" t="inlineStr">
@@ -22953,10 +22935,2294 @@
       </c>
       <c r="AX185" t="inlineStr">
         <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>112507099</v>
+      </c>
+      <c r="B186" t="n">
+        <v>89331</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>510756</v>
+      </c>
+      <c r="R186" t="n">
+        <v>6729008</v>
+      </c>
+      <c r="S186" t="n">
+        <v>10</v>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>Örtrik, kalkrik, källpåverkad naturskog</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr"/>
+      <c r="AW186" t="inlineStr">
+        <is>
           <t>Paula Testad</t>
         </is>
       </c>
-      <c r="AY185" t="inlineStr"/>
+      <c r="AX186" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>112502360</v>
+      </c>
+      <c r="B187" t="n">
+        <v>101621</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1665</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Skuggviol</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Viola selkirkii</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Pursh ex Goldie</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>510844</v>
+      </c>
+      <c r="R187" t="n">
+        <v>6728894</v>
+      </c>
+      <c r="S187" t="n">
+        <v>25</v>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>Fuktig, källpåverkad mark</t>
+        </is>
+      </c>
+      <c r="AT187" t="inlineStr"/>
+      <c r="AW187" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX187" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>112502310</v>
+      </c>
+      <c r="B188" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>511122</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6729043</v>
+      </c>
+      <c r="S188" t="n">
+        <v>10</v>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AD188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT188" t="inlineStr"/>
+      <c r="AW188" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX188" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>112507318</v>
+      </c>
+      <c r="B189" t="n">
+        <v>90443</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sotriska</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Lactarius lignyotus</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>510835</v>
+      </c>
+      <c r="R189" t="n">
+        <v>6729240</v>
+      </c>
+      <c r="S189" t="n">
+        <v>10</v>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AD189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT189" t="inlineStr"/>
+      <c r="AW189" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX189" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>112507355</v>
+      </c>
+      <c r="B190" t="n">
+        <v>90480</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>510835</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6729240</v>
+      </c>
+      <c r="S190" t="n">
+        <v>10</v>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AD190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>Kalkbarrnaturskog</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr"/>
+      <c r="AW190" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX190" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>112503763</v>
+      </c>
+      <c r="B191" t="n">
+        <v>90799</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>511026</v>
+      </c>
+      <c r="R191" t="n">
+        <v>6729087</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AD191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog. Naturskog.</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr"/>
+      <c r="AW191" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX191" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>112502678</v>
+      </c>
+      <c r="B192" t="n">
+        <v>89499</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>112</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>510750</v>
+      </c>
+      <c r="R192" t="n">
+        <v>6729032</v>
+      </c>
+      <c r="S192" t="n">
+        <v>10</v>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket stående och liggande död ved.</t>
+        </is>
+      </c>
+      <c r="AT192" t="inlineStr"/>
+      <c r="AW192" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX192" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>112502553</v>
+      </c>
+      <c r="B193" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>788</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>511027</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6729199</v>
+      </c>
+      <c r="S193" t="n">
+        <v>10</v>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AC193" t="inlineStr">
+        <is>
+          <t>Gyttrade på 27 punkter i gläntan. Fotot visar en av dessa punkter.</t>
+        </is>
+      </c>
+      <c r="AD193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>Örtrik glänta med kalkgynnad flora. Naturskog.</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr"/>
+      <c r="AW193" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX193" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>112503649</v>
+      </c>
+      <c r="B194" t="n">
+        <v>90837</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>511034</v>
+      </c>
+      <c r="R194" t="n">
+        <v>6728981</v>
+      </c>
+      <c r="S194" t="n">
+        <v>25</v>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA194" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>Naturskog, kalkrik mark.</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr"/>
+      <c r="AW194" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX194" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>112507699</v>
+      </c>
+      <c r="B195" t="n">
+        <v>90480</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>510829</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6729018</v>
+      </c>
+      <c r="S195" t="n">
+        <v>10</v>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AD195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>Kalkbarrnaturskog</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr"/>
+      <c r="AW195" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX195" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>112505872</v>
+      </c>
+      <c r="B196" t="n">
+        <v>57526</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>205992</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Myotis daubentonii</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>(Kuhl, 1817)</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>511012</v>
+      </c>
+      <c r="R196" t="n">
+        <v>6729049</v>
+      </c>
+      <c r="S196" t="n">
+        <v>5</v>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr">
+        <is>
+          <t>Fladdermöss som flyger längs med vattenytan vid en damm.</t>
+        </is>
+      </c>
+      <c r="AD196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>Naturskog vid damm</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr"/>
+      <c r="AW196" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX196" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>112506178</v>
+      </c>
+      <c r="B197" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>510764</v>
+      </c>
+      <c r="R197" t="n">
+        <v>6729368</v>
+      </c>
+      <c r="S197" t="n">
+        <v>10</v>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AD197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket liggande och stående död ved</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr"/>
+      <c r="AW197" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX197" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>112507619</v>
+      </c>
+      <c r="B198" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>510791</v>
+      </c>
+      <c r="R198" t="n">
+        <v>6728909</v>
+      </c>
+      <c r="S198" t="n">
+        <v>10</v>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AD198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>Naturskog</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr"/>
+      <c r="AW198" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX198" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>112502482</v>
+      </c>
+      <c r="B199" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>511067</v>
+      </c>
+      <c r="R199" t="n">
+        <v>6729164</v>
+      </c>
+      <c r="S199" t="n">
+        <v>10</v>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD199" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket stående och liggande lågor</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr"/>
+      <c r="AW199" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX199" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>112507662</v>
+      </c>
+      <c r="B200" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>510820</v>
+      </c>
+      <c r="R200" t="n">
+        <v>6728994</v>
+      </c>
+      <c r="S200" t="n">
+        <v>10</v>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AA200" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AD200" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE200" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket liggande och stående död ved.</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr"/>
+      <c r="AW200" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX200" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>112503587</v>
+      </c>
+      <c r="B201" t="n">
+        <v>85197</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>510734</v>
+      </c>
+      <c r="R201" t="n">
+        <v>6729098</v>
+      </c>
+      <c r="S201" t="n">
+        <v>10</v>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AD201" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>Kalkrik mark med mycket kransmossa och blåsippa. Naturskog.</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr"/>
+      <c r="AW201" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX201" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>102062640</v>
+      </c>
+      <c r="B202" t="n">
+        <v>103250</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>221725</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Moneses uniflora</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>510852.8743588758</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6728840.349501666</v>
+      </c>
+      <c r="S202" t="n">
+        <v>10</v>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT202" t="inlineStr"/>
+      <c r="AW202" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX202" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>103203524</v>
+      </c>
+      <c r="B203" t="n">
+        <v>90282</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sotriska</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Lactarius lignyotus</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>510886.7552292389</v>
+      </c>
+      <c r="R203" t="n">
+        <v>6728828.698757193</v>
+      </c>
+      <c r="S203" t="n">
+        <v>10</v>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT203" t="inlineStr"/>
+      <c r="AW203" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX203" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>107179269</v>
+      </c>
+      <c r="B204" t="n">
+        <v>56411</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>510873.9870787198</v>
+      </c>
+      <c r="R204" t="n">
+        <v>6728833.557288054</v>
+      </c>
+      <c r="S204" t="n">
+        <v>50</v>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT204" t="inlineStr"/>
+      <c r="AW204" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX204" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY204"/>
+  <dimension ref="A1:AY210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22592,7 +22592,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>112506030</v>
+        <v>112507699</v>
       </c>
       <c r="B183" t="n">
         <v>90480</v>
@@ -22627,7 +22627,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -22639,10 +22639,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>510956</v>
+        <v>510829</v>
       </c>
       <c r="R183" t="n">
-        <v>6729318</v>
+        <v>6729018</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22664,17 +22664,17 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD183" t="b">
@@ -22687,6 +22687,16 @@
       <c r="AG183" t="b">
         <v>0</v>
       </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI183" t="inlineStr">
+        <is>
+          <t>Kalkbarrnaturskog</t>
+        </is>
+      </c>
       <c r="AT183" t="inlineStr"/>
       <c r="AW183" t="inlineStr">
         <is>
@@ -22695,17 +22705,17 @@
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>112504384</v>
+        <v>112502678</v>
       </c>
       <c r="B184" t="n">
-        <v>89094</v>
+        <v>89499</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22714,32 +22724,28 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>256335</v>
+        <v>112</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
@@ -22749,10 +22755,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>511012</v>
+        <v>510750</v>
       </c>
       <c r="R184" t="n">
-        <v>6729070</v>
+        <v>6729032</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22779,12 +22785,12 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD184" t="b">
@@ -22804,7 +22810,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>Kalkgranskog. Naturskog.</t>
+          <t>Naturskog med mycket stående och liggande död ved.</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22822,10 +22828,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>112506048</v>
+        <v>112503587</v>
       </c>
       <c r="B185" t="n">
-        <v>90480</v>
+        <v>85197</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22834,25 +22840,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4769</v>
+        <v>249278</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22869,10 +22875,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>510897</v>
+        <v>510734</v>
       </c>
       <c r="R185" t="n">
-        <v>6729325</v>
+        <v>6729098</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22894,17 +22900,17 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD185" t="b">
@@ -22924,7 +22930,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>Kalkbarrskog</t>
+          <t>Kalkrik mark med mycket kransmossa och blåsippa. Naturskog.</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22935,17 +22941,17 @@
       </c>
       <c r="AX185" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>112507099</v>
+        <v>112506068</v>
       </c>
       <c r="B186" t="n">
-        <v>89331</v>
+        <v>90480</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22958,26 +22964,26 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -22989,10 +22995,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>510756</v>
+        <v>510897</v>
       </c>
       <c r="R186" t="n">
-        <v>6729008</v>
+        <v>6729325</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -23014,17 +23020,17 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD186" t="b">
@@ -23044,7 +23050,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>Örtrik, kalkrik, källpåverkad naturskog</t>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -23062,10 +23068,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>112502360</v>
+        <v>112507619</v>
       </c>
       <c r="B187" t="n">
-        <v>101621</v>
+        <v>56575</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23078,27 +23084,35 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1665</v>
+        <v>103021</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Skuggviol</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Viola selkirkii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Pursh ex Goldie</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
@@ -23106,13 +23120,13 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>510844</v>
+        <v>510791</v>
       </c>
       <c r="R187" t="n">
-        <v>6728894</v>
+        <v>6728909</v>
       </c>
       <c r="S187" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
@@ -23136,12 +23150,12 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD187" t="b">
@@ -23150,7 +23164,6 @@
       <c r="AE187" t="b">
         <v>0</v>
       </c>
-      <c r="AF187" t="inlineStr"/>
       <c r="AG187" t="b">
         <v>0</v>
       </c>
@@ -23161,7 +23174,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>Fuktig, källpåverkad mark</t>
+          <t>Naturskog</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -23172,17 +23185,17 @@
       </c>
       <c r="AX187" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>112502310</v>
+        <v>112502360</v>
       </c>
       <c r="B188" t="n">
-        <v>56575</v>
+        <v>101621</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23195,31 +23208,27 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>103021</v>
+        <v>1665</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skuggviol</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Viola selkirkii</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Pursh ex Goldie</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
@@ -23227,13 +23236,13 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>511122</v>
+        <v>510844</v>
       </c>
       <c r="R188" t="n">
-        <v>6729043</v>
+        <v>6728894</v>
       </c>
       <c r="S188" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T188" t="inlineStr">
         <is>
@@ -23260,29 +23269,30 @@
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="Z188" t="inlineStr">
-        <is>
-          <t>13:15</t>
-        </is>
-      </c>
       <c r="AA188" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="AB188" t="inlineStr">
-        <is>
-          <t>13:15</t>
-        </is>
-      </c>
       <c r="AD188" t="b">
         <v>0</v>
       </c>
       <c r="AE188" t="b">
         <v>0</v>
       </c>
+      <c r="AF188" t="inlineStr"/>
       <c r="AG188" t="b">
         <v>0</v>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>Fuktig, källpåverkad mark</t>
+        </is>
       </c>
       <c r="AT188" t="inlineStr"/>
       <c r="AW188" t="inlineStr">
@@ -23299,10 +23309,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>112507318</v>
+        <v>112503649</v>
       </c>
       <c r="B189" t="n">
-        <v>90443</v>
+        <v>90837</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23311,25 +23321,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4740</v>
+        <v>5966</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23346,13 +23356,13 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>510835</v>
+        <v>511034</v>
       </c>
       <c r="R189" t="n">
-        <v>6729240</v>
+        <v>6728981</v>
       </c>
       <c r="S189" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T189" t="inlineStr">
         <is>
@@ -23371,17 +23381,17 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="AD189" t="b">
@@ -23393,6 +23403,16 @@
       <c r="AF189" t="inlineStr"/>
       <c r="AG189" t="b">
         <v>0</v>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>Naturskog, kalkrik mark.</t>
+        </is>
       </c>
       <c r="AT189" t="inlineStr"/>
       <c r="AW189" t="inlineStr">
@@ -23409,10 +23429,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>112507355</v>
+        <v>112503763</v>
       </c>
       <c r="B190" t="n">
-        <v>90480</v>
+        <v>90799</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23421,30 +23441,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4769</v>
+        <v>1968</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -23456,10 +23476,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>510835</v>
+        <v>511026</v>
       </c>
       <c r="R190" t="n">
-        <v>6729240</v>
+        <v>6729087</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23481,17 +23501,17 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AD190" t="b">
@@ -23511,7 +23531,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>Kalkbarrnaturskog</t>
+          <t>Kalkbarrskog. Naturskog.</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23529,10 +23549,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>112503763</v>
+        <v>112505872</v>
       </c>
       <c r="B191" t="n">
-        <v>90799</v>
+        <v>57526</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23541,34 +23561,36 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1968</v>
+        <v>205992</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
@@ -23576,13 +23598,13 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>511026</v>
+        <v>511012</v>
       </c>
       <c r="R191" t="n">
-        <v>6729087</v>
+        <v>6729049</v>
       </c>
       <c r="S191" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -23606,12 +23628,27 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>22:00</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="AC191" t="inlineStr">
+        <is>
+          <t>Fladdermöss som flyger längs med vattenytan vid en damm.</t>
         </is>
       </c>
       <c r="AD191" t="b">
@@ -23620,7 +23657,6 @@
       <c r="AE191" t="b">
         <v>0</v>
       </c>
-      <c r="AF191" t="inlineStr"/>
       <c r="AG191" t="b">
         <v>0</v>
       </c>
@@ -23631,7 +23667,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>Kalkbarrskog. Naturskog.</t>
+          <t>Naturskog vid damm</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -23649,10 +23685,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>112502678</v>
+        <v>112507355</v>
       </c>
       <c r="B192" t="n">
-        <v>89499</v>
+        <v>90480</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23661,28 +23697,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>112</v>
+        <v>4769</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Pat.</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
@@ -23692,10 +23732,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>510750</v>
+        <v>510835</v>
       </c>
       <c r="R192" t="n">
-        <v>6729032</v>
+        <v>6729240</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23717,17 +23757,17 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="AD192" t="b">
@@ -23747,7 +23787,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>Naturskog med mycket stående och liggande död ved.</t>
+          <t>Kalkbarrnaturskog</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -23758,17 +23798,17 @@
       </c>
       <c r="AX192" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>112502553</v>
+        <v>112506178</v>
       </c>
       <c r="B193" t="n">
-        <v>90816</v>
+        <v>89553</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,28 +23821,24 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>788</v>
+        <v>1202</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
@@ -23812,10 +23848,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>511027</v>
+        <v>510764</v>
       </c>
       <c r="R193" t="n">
-        <v>6729199</v>
+        <v>6729368</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23837,22 +23873,17 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="AC193" t="inlineStr">
-        <is>
-          <t>Gyttrade på 27 punkter i gläntan. Fotot visar en av dessa punkter.</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD193" t="b">
@@ -23872,7 +23903,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>Örtrik glänta med kalkgynnad flora. Naturskog.</t>
+          <t>Naturskog med mycket liggande och stående död ved</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23883,17 +23914,17 @@
       </c>
       <c r="AX193" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>112503649</v>
+        <v>112502482</v>
       </c>
       <c r="B194" t="n">
-        <v>90837</v>
+        <v>89517</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23902,32 +23933,28 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
@@ -23937,13 +23964,13 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>511034</v>
+        <v>511067</v>
       </c>
       <c r="R194" t="n">
-        <v>6728981</v>
+        <v>6729164</v>
       </c>
       <c r="S194" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T194" t="inlineStr">
         <is>
@@ -23967,12 +23994,12 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD194" t="b">
@@ -23992,7 +24019,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>Naturskog, kalkrik mark.</t>
+          <t>Naturskog med mycket stående och liggande lågor</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24003,17 +24030,17 @@
       </c>
       <c r="AX194" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>112507699</v>
+        <v>112502553</v>
       </c>
       <c r="B195" t="n">
-        <v>90480</v>
+        <v>90816</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24022,30 +24049,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4769</v>
+        <v>788</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -24057,10 +24084,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>510829</v>
+        <v>511027</v>
       </c>
       <c r="R195" t="n">
-        <v>6729018</v>
+        <v>6729199</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24087,12 +24114,17 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>Gyttrade på 27 punkter i gläntan. Fotot visar en av dessa punkter.</t>
         </is>
       </c>
       <c r="AD195" t="b">
@@ -24112,7 +24144,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>Kalkbarrnaturskog</t>
+          <t>Örtrik glänta med kalkgynnad flora. Naturskog.</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24123,17 +24155,17 @@
       </c>
       <c r="AX195" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>112505872</v>
+        <v>112502310</v>
       </c>
       <c r="B196" t="n">
-        <v>57526</v>
+        <v>56575</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24142,33 +24174,32 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>205992</v>
+        <v>103021</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
@@ -24179,13 +24210,13 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>511012</v>
+        <v>511122</v>
       </c>
       <c r="R196" t="n">
-        <v>6729049</v>
+        <v>6729043</v>
       </c>
       <c r="S196" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -24209,27 +24240,22 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="AC196" t="inlineStr">
-        <is>
-          <t>Fladdermöss som flyger längs med vattenytan vid en damm.</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD196" t="b">
@@ -24240,16 +24266,6 @@
       </c>
       <c r="AG196" t="b">
         <v>0</v>
-      </c>
-      <c r="AH196" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI196" t="inlineStr">
-        <is>
-          <t>Naturskog vid damm</t>
-        </is>
       </c>
       <c r="AT196" t="inlineStr"/>
       <c r="AW196" t="inlineStr">
@@ -24266,10 +24282,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>112506178</v>
+        <v>112506030</v>
       </c>
       <c r="B197" t="n">
-        <v>89553</v>
+        <v>90480</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24278,28 +24294,32 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
@@ -24309,10 +24329,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>510764</v>
+        <v>510956</v>
       </c>
       <c r="R197" t="n">
-        <v>6729368</v>
+        <v>6729318</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24357,16 +24377,6 @@
       <c r="AG197" t="b">
         <v>0</v>
       </c>
-      <c r="AH197" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI197" t="inlineStr">
-        <is>
-          <t>Naturskog med mycket liggande och stående död ved</t>
-        </is>
-      </c>
       <c r="AT197" t="inlineStr"/>
       <c r="AW197" t="inlineStr">
         <is>
@@ -24375,17 +24385,17 @@
       </c>
       <c r="AX197" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>112507619</v>
+        <v>112504384</v>
       </c>
       <c r="B198" t="n">
-        <v>56575</v>
+        <v>89094</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24394,39 +24404,34 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>103021</v>
+        <v>256335</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
@@ -24434,10 +24439,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>510791</v>
+        <v>511012</v>
       </c>
       <c r="R198" t="n">
-        <v>6728909</v>
+        <v>6729070</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24478,6 +24483,7 @@
       <c r="AE198" t="b">
         <v>0</v>
       </c>
+      <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="b">
         <v>0</v>
       </c>
@@ -24488,7 +24494,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>Naturskog</t>
+          <t>Kalkgranskog. Naturskog.</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24506,10 +24512,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>112502482</v>
+        <v>112507662</v>
       </c>
       <c r="B199" t="n">
-        <v>89517</v>
+        <v>89993</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24518,25 +24524,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -24549,10 +24555,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>511067</v>
+        <v>510820</v>
       </c>
       <c r="R199" t="n">
-        <v>6729164</v>
+        <v>6728994</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24579,12 +24585,12 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -24604,7 +24610,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>Naturskog med mycket stående och liggande lågor</t>
+          <t>Naturskog med mycket liggande och stående död ved.</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24622,10 +24628,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>112507662</v>
+        <v>112507099</v>
       </c>
       <c r="B200" t="n">
-        <v>89993</v>
+        <v>89331</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24634,28 +24640,32 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1209</v>
+        <v>3215</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
@@ -24665,10 +24675,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>510820</v>
+        <v>510756</v>
       </c>
       <c r="R200" t="n">
-        <v>6728994</v>
+        <v>6729008</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24695,12 +24705,12 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD200" t="b">
@@ -24720,7 +24730,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>Naturskog med mycket liggande och stående död ved.</t>
+          <t>Örtrik, kalkrik, källpåverkad naturskog</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24731,17 +24741,17 @@
       </c>
       <c r="AX200" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>112503587</v>
+        <v>112507318</v>
       </c>
       <c r="B201" t="n">
-        <v>85197</v>
+        <v>90443</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -24750,30 +24760,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>249278</v>
+        <v>4740</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -24785,10 +24795,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>510734</v>
+        <v>510835</v>
       </c>
       <c r="R201" t="n">
-        <v>6729098</v>
+        <v>6729240</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24810,17 +24820,17 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="AD201" t="b">
@@ -24833,16 +24843,6 @@
       <c r="AG201" t="b">
         <v>0</v>
       </c>
-      <c r="AH201" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI201" t="inlineStr">
-        <is>
-          <t>Kalkrik mark med mycket kransmossa och blåsippa. Naturskog.</t>
-        </is>
-      </c>
       <c r="AT201" t="inlineStr"/>
       <c r="AW201" t="inlineStr">
         <is>
@@ -24851,17 +24851,17 @@
       </c>
       <c r="AX201" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>102062640</v>
+        <v>112508606</v>
       </c>
       <c r="B202" t="n">
-        <v>103250</v>
+        <v>96768</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24874,24 +24874,28 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>221725</v>
+        <v>219874</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -24906,10 +24910,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>510852.8743588758</v>
+        <v>510868</v>
       </c>
       <c r="R202" t="n">
-        <v>6728840.349501666</v>
+        <v>6729339</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -24931,27 +24935,22 @@
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
-        </is>
-      </c>
-      <c r="Z202" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
-        </is>
-      </c>
-      <c r="AB202" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>På ett område på ca 25 kvadratmeter växer rikligt med nu blommande nattvioler.</t>
         </is>
       </c>
       <c r="AD202" t="b">
@@ -24964,25 +24963,35 @@
       <c r="AG202" t="b">
         <v>0</v>
       </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>Örtrik kalkpåverkad naturskog</t>
+        </is>
+      </c>
       <c r="AT202" t="inlineStr"/>
       <c r="AW202" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX202" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>103203524</v>
+        <v>112508915</v>
       </c>
       <c r="B203" t="n">
-        <v>90282</v>
+        <v>56446</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -24991,38 +25000,39 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4740</v>
+        <v>100049</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
@@ -25030,10 +25040,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>510886.7552292389</v>
+        <v>510709</v>
       </c>
       <c r="R203" t="n">
-        <v>6728828.698757193</v>
+        <v>6729155</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25055,27 +25065,17 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="Z203" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="AB203" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD203" t="b">
@@ -25086,26 +25086,36 @@
       </c>
       <c r="AG203" t="b">
         <v>0</v>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>Naturskog</t>
+        </is>
       </c>
       <c r="AT203" t="inlineStr"/>
       <c r="AW203" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX203" t="inlineStr">
         <is>
-          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>107179269</v>
+        <v>112508778</v>
       </c>
       <c r="B204" t="n">
-        <v>56411</v>
+        <v>56430</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25118,16 +25128,16 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -25144,7 +25154,7 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
@@ -25154,13 +25164,13 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>510873.9870787198</v>
+        <v>510967</v>
       </c>
       <c r="R204" t="n">
-        <v>6728833.557288054</v>
+        <v>6729154</v>
       </c>
       <c r="S204" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -25184,22 +25194,22 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AD204" t="b">
@@ -25210,6 +25220,16 @@
       </c>
       <c r="AG204" t="b">
         <v>0</v>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket liggande och stående död ved</t>
+        </is>
       </c>
       <c r="AT204" t="inlineStr"/>
       <c r="AW204" t="inlineStr">
@@ -25223,6 +25243,748 @@
         </is>
       </c>
       <c r="AY204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>112508892</v>
+      </c>
+      <c r="B205" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>510960</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6729254</v>
+      </c>
+      <c r="S205" t="n">
+        <v>10</v>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AA205" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AD205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>Naturskog</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr"/>
+      <c r="AW205" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX205" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>112508852</v>
+      </c>
+      <c r="B206" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr"/>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>510889</v>
+      </c>
+      <c r="R206" t="n">
+        <v>6729223</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10</v>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AD206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr"/>
+      <c r="AW206" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX206" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>112508717</v>
+      </c>
+      <c r="B207" t="n">
+        <v>96768</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>219874</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Platanthera bifolia</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>510899</v>
+      </c>
+      <c r="R207" t="n">
+        <v>6729319</v>
+      </c>
+      <c r="S207" t="n">
+        <v>10</v>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AD207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>Naturskog på kalkrik mark</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr"/>
+      <c r="AW207" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX207" t="inlineStr">
+        <is>
+          <t>Paula Testad, Lars Johan Klockars</t>
+        </is>
+      </c>
+      <c r="AY207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>102062640</v>
+      </c>
+      <c r="B208" t="n">
+        <v>103250</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>221725</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Moneses uniflora</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>510852.8743588758</v>
+      </c>
+      <c r="R208" t="n">
+        <v>6728840.349501666</v>
+      </c>
+      <c r="S208" t="n">
+        <v>10</v>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT208" t="inlineStr"/>
+      <c r="AW208" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX208" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Cecilia Rastad, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>103203524</v>
+      </c>
+      <c r="B209" t="n">
+        <v>90282</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sotriska</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Lactarius lignyotus</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>510886.7552292389</v>
+      </c>
+      <c r="R209" t="n">
+        <v>6728828.698757193</v>
+      </c>
+      <c r="S209" t="n">
+        <v>10</v>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT209" t="inlineStr"/>
+      <c r="AW209" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX209" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Cecilia Rastad, Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>107179269</v>
+      </c>
+      <c r="B210" t="n">
+        <v>56411</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr"/>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>Solberga, Dlr</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>510873.9870787198</v>
+      </c>
+      <c r="R210" t="n">
+        <v>6728833.557288054</v>
+      </c>
+      <c r="S210" t="n">
+        <v>50</v>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>Ål</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA210" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT210" t="inlineStr"/>
+      <c r="AW210" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AX210" t="inlineStr">
+        <is>
+          <t>Paula Testad</t>
+        </is>
+      </c>
+      <c r="AY210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 64194-2021.xlsx
+++ b/artfynd/A 64194-2021.xlsx
@@ -23080,7 +23080,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>112507699</v>
+        <v>112506068</v>
       </c>
       <c r="B187" t="n">
         <v>90480</v>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -23127,10 +23127,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>510829</v>
+        <v>510897</v>
       </c>
       <c r="R187" t="n">
-        <v>6729018</v>
+        <v>6729325</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23152,17 +23152,17 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD187" t="b">
@@ -23182,7 +23182,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>Kalkbarrnaturskog</t>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -23193,17 +23193,17 @@
       </c>
       <c r="AX187" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>112504384</v>
+        <v>112506178</v>
       </c>
       <c r="B188" t="n">
-        <v>89094</v>
+        <v>89553</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23212,32 +23212,28 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>256335</v>
+        <v>1202</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
@@ -23247,10 +23243,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>511012</v>
+        <v>510764</v>
       </c>
       <c r="R188" t="n">
-        <v>6729070</v>
+        <v>6729368</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23272,17 +23268,17 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD188" t="b">
@@ -23302,7 +23298,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>Kalkgranskog. Naturskog.</t>
+          <t>Naturskog med mycket liggande och stående död ved</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -23320,10 +23316,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>112506068</v>
+        <v>112504384</v>
       </c>
       <c r="B189" t="n">
-        <v>90480</v>
+        <v>89094</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23332,25 +23328,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4769</v>
+        <v>256335</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23367,10 +23363,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>510897</v>
+        <v>511012</v>
       </c>
       <c r="R189" t="n">
-        <v>6729325</v>
+        <v>6729070</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23392,17 +23388,17 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD189" t="b">
@@ -23422,7 +23418,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>Kalkbarrskog</t>
+          <t>Kalkgranskog. Naturskog.</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23433,17 +23429,17 @@
       </c>
       <c r="AX189" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>112506178</v>
+        <v>112507699</v>
       </c>
       <c r="B190" t="n">
-        <v>89553</v>
+        <v>90480</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23452,28 +23448,32 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
@@ -23483,10 +23483,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>510764</v>
+        <v>510829</v>
       </c>
       <c r="R190" t="n">
-        <v>6729368</v>
+        <v>6729018</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23508,17 +23508,17 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD190" t="b">
@@ -23538,7 +23538,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>Naturskog med mycket liggande och stående död ved</t>
+          <t>Kalkbarrnaturskog</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23666,10 +23666,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>112505872</v>
+        <v>112502553</v>
       </c>
       <c r="B192" t="n">
-        <v>57526</v>
+        <v>90816</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23678,36 +23678,34 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>205992</v>
+        <v>788</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
       <c r="P192" t="inlineStr">
         <is>
@@ -23715,13 +23713,13 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>511012</v>
+        <v>511027</v>
       </c>
       <c r="R192" t="n">
-        <v>6729049</v>
+        <v>6729199</v>
       </c>
       <c r="S192" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T192" t="inlineStr">
         <is>
@@ -23745,27 +23743,17 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="Z192" t="inlineStr">
-        <is>
-          <t>22:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB192" t="inlineStr">
-        <is>
-          <t>22:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>Fladdermöss som flyger längs med vattenytan vid en damm.</t>
+          <t>Gyttrade på 27 punkter i gläntan. Fotot visar en av dessa punkter.</t>
         </is>
       </c>
       <c r="AD192" t="b">
@@ -23774,6 +23762,7 @@
       <c r="AE192" t="b">
         <v>0</v>
       </c>
+      <c r="AF192" t="inlineStr"/>
       <c r="AG192" t="b">
         <v>0</v>
       </c>
@@ -23784,7 +23773,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>Naturskog vid damm</t>
+          <t>Örtrik glänta med kalkgynnad flora. Naturskog.</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -23802,10 +23791,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>112502553</v>
+        <v>112505872</v>
       </c>
       <c r="B193" t="n">
-        <v>90816</v>
+        <v>57526</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23814,34 +23803,36 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>788</v>
+        <v>205992</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Kuhl, 1817)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
@@ -23849,13 +23840,13 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>511027</v>
+        <v>511012</v>
       </c>
       <c r="R193" t="n">
-        <v>6729199</v>
+        <v>6729049</v>
       </c>
       <c r="S193" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -23879,17 +23870,27 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>22:00</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>22:00</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>Gyttrade på 27 punkter i gläntan. Fotot visar en av dessa punkter.</t>
+          <t>Fladdermöss som flyger längs med vattenytan vid en damm.</t>
         </is>
       </c>
       <c r="AD193" t="b">
@@ -23898,7 +23899,6 @@
       <c r="AE193" t="b">
         <v>0</v>
       </c>
-      <c r="AF193" t="inlineStr"/>
       <c r="AG193" t="b">
         <v>0</v>
       </c>
@@ -23909,7 +23909,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>Örtrik glänta med kalkgynnad flora. Naturskog.</t>
+          <t>Naturskog vid damm</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -24163,10 +24163,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>112506030</v>
+        <v>112502678</v>
       </c>
       <c r="B196" t="n">
-        <v>90480</v>
+        <v>89499</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24175,32 +24175,28 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4769</v>
+        <v>112</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
@@ -24210,10 +24206,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>510956</v>
+        <v>510750</v>
       </c>
       <c r="R196" t="n">
-        <v>6729318</v>
+        <v>6729032</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24235,17 +24231,17 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Ål</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD196" t="b">
@@ -24258,6 +24254,16 @@
       <c r="AG196" t="b">
         <v>0</v>
       </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>Naturskog med mycket stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AT196" t="inlineStr"/>
       <c r="AW196" t="inlineStr">
         <is>
@@ -24266,17 +24272,17 @@
       </c>
       <c r="AX196" t="inlineStr">
         <is>
-          <t>Paula Testad, Lars Johan Klockars</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AY196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>112502678</v>
+        <v>112506030</v>
       </c>
       <c r="B197" t="n">
-        <v>89499</v>
+        <v>90480</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24285,28 +24291,32 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>112</v>
+        <v>4769</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Pat.</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
@@ -24316,10 +24326,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>510750</v>
+        <v>510956</v>
       </c>
       <c r="R197" t="n">
-        <v>6729032</v>
+        <v>6729318</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24341,17 +24351,17 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Ål</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -24364,16 +24374,6 @@
       <c r="AG197" t="b">
         <v>0</v>
       </c>
-      <c r="AH197" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI197" t="inlineStr">
-        <is>
-          <t>Naturskog med mycket stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AT197" t="inlineStr"/>
       <c r="AW197" t="inlineStr">
         <is>
@@ -24382,17 +24382,17 @@
       </c>
       <c r="AX197" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Paula Testad, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>112507619</v>
+        <v>112503587</v>
       </c>
       <c r="B198" t="n">
-        <v>56575</v>
+        <v>85197</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24405,35 +24405,30 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>103021</v>
+        <v>249278</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
@@ -24441,10 +24436,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>510791</v>
+        <v>510734</v>
       </c>
       <c r="R198" t="n">
-        <v>6728909</v>
+        <v>6729098</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24485,6 +24480,7 @@
       <c r="AE198" t="b">
         <v>0</v>
       </c>
+      <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="b">
         <v>0</v>
       </c>
@@ -24495,7 +24491,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>Naturskog</t>
+          <t>Kalkrik mark med mycket kransmossa och blåsippa. Naturskog.</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24513,10 +24509,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>112503587</v>
+        <v>112507619</v>
       </c>
       <c r="B199" t="n">
-        <v>85197</v>
+        <v>56575</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24529,30 +24525,35 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>249278</v>
+        <v>103021</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
@@ -24560,10 +24561,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>510734</v>
+        <v>510791</v>
       </c>
       <c r="R199" t="n">
-        <v>6729098</v>
+        <v>6728909</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24604,7 +24605,6 @@
       <c r="AE199" t="b">
         <v>0</v>
       </c>
-      <c r="AF199" t="inlineStr"/>
       <c r="AG199" t="b">
         <v>0</v>
       </c>
@@ -24615,7 +24615,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>Kalkrik mark med mycket kransmossa och blåsippa. Naturskog.</t>
+          <t>Naturskog</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
